--- a/networks/nodebirth_analysis.xlsx
+++ b/networks/nodebirth_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\ArtProject\networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F1993-4E9A-478E-9424-1818E3B57049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1624A5-D59A-4120-9766-3BE90CA7F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="24" windowWidth="23040" windowHeight="12216" xr2:uid="{27056E58-9BF7-4586-B0E9-DB0515F6E266}"/>
   </bookViews>
@@ -16,23 +16,15 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Munka1!$D$106:$D$157</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Munka1!$D$158:$D$232</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Munka1!$D$233:$D$282</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Munka1!$D$158:$D$232</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Munka1!$D$342:$D$401</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Munka1!$D$158:$D$232</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Munka1!$D$283:$D$341</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Munka1!$D$49:$D$105</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Munka1!$D$8:$D$48</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Munka1!$E$8:$E$48</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Munka1!$D$105:$D$157</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Munka1!$D$106:$D$157</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Munka1!$D$49:$D$105</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Munka1!$D$158:$D$232</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Munka1!$D$471:$D$511</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Munka1!$D$158:$D$232</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Munka1!$D$402:$D$471</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Munka1!$D$471:$D$511</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Munka1!$D$8:$D$48</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Munka1!$E$8:$E$48</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Munka1!$D$283:$D$341</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Munka1!$D$342:$D$401</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Munka1!$D$402:$D$471</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Munka1!$D$49:$D$105</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Munka1!$D$106:$D$157</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Munka1!$D$233:$D$282</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Munka1!$D$158:$D$232</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2352,27 +2344,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2382,7 +2368,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2393,13 +2382,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2422,12 +2413,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2467,7 +2458,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2501,7 +2492,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2535,7 +2526,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2569,7 +2560,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2603,7 +2594,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2637,7 +2628,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2671,7 +2662,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2705,7 +2696,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7716,7 +7707,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8595360" y="1790700"/>
-              <a:ext cx="4442460" cy="2705100"/>
+              <a:ext cx="4511040" cy="2705100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7793,8 +7784,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="8465820"/>
-              <a:ext cx="4251960" cy="2567940"/>
+              <a:off x="8633460" y="8785860"/>
+              <a:ext cx="4320540" cy="2567940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7827,15 +7818,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>251460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7871,7 +7862,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="8785860"/>
+              <a:off x="8648700" y="14714220"/>
               <a:ext cx="4320540" cy="2567940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7949,8 +7940,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="14615160"/>
-              <a:ext cx="4320540" cy="2567940"/>
+              <a:off x="8633460" y="18943320"/>
+              <a:ext cx="4320540" cy="1973580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8027,8 +8018,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="18943320"/>
-              <a:ext cx="4320540" cy="1973580"/>
+              <a:off x="8633460" y="22860000"/>
+              <a:ext cx="4320540" cy="1714500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8105,8 +8096,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="22753320"/>
-              <a:ext cx="4320540" cy="1714500"/>
+              <a:off x="8633460" y="26388060"/>
+              <a:ext cx="4320540" cy="2103120"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8183,8 +8174,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="22753320"/>
-              <a:ext cx="4320540" cy="1714500"/>
+              <a:off x="8633460" y="30121860"/>
+              <a:ext cx="4320540" cy="1973580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8261,8 +8252,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="22753320"/>
-              <a:ext cx="4320540" cy="1714500"/>
+              <a:off x="8633460" y="33703260"/>
+              <a:ext cx="4320540" cy="1790700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8339,8 +8330,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8633460" y="22753320"/>
-              <a:ext cx="4320540" cy="1714500"/>
+              <a:off x="8633460" y="37330380"/>
+              <a:ext cx="4320540" cy="1973580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8672,8 +8663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF514C4B-83AB-4069-B9BF-0A669673B6D4}">
   <dimension ref="A1:AB511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23:Z23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8685,7 +8676,7 @@
     <col min="10" max="17" width="5.88671875" style="1" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
     <col min="19" max="19" width="7.109375" customWidth="1"/>
-    <col min="20" max="20" width="3" style="5" customWidth="1"/>
+    <col min="20" max="20" width="3" style="4" customWidth="1"/>
     <col min="26" max="26" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8735,7 +8726,7 @@
       <c r="Q1" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -8780,20 +8771,20 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
     </row>
     <row r="3" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -8840,20 +8831,20 @@
       <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="7">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="16" t="s">
+      <c r="S3" s="6">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -8898,14 +8889,14 @@
       <c r="Q4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>47</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="13">
         <f>1/((SUM(G5:G7)-SUM(D5:D7))/3)</f>
         <v>1.5544041450777204E-2</v>
       </c>
@@ -8953,23 +8944,23 @@
       <c r="Q5" s="2">
         <v>2</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>104</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="12" t="s">
+      <c r="T5" s="8"/>
+      <c r="U5" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="11">
         <f>3/10</f>
         <v>0.3</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="13">
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="11">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
@@ -9017,10 +9008,10 @@
       <c r="Q6" s="2">
         <v>2</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>158</v>
       </c>
-      <c r="T6" s="10"/>
+      <c r="T6" s="8"/>
       <c r="U6" t="s">
         <v>691</v>
       </c>
@@ -9068,10 +9059,10 @@
       <c r="Q7" s="2">
         <v>2</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>233</v>
       </c>
-      <c r="T7" s="10"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -9118,10 +9109,10 @@
       <c r="Q8" s="2">
         <v>2</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>283</v>
       </c>
-      <c r="T8" s="10"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -9166,10 +9157,10 @@
       <c r="Q9" s="2">
         <v>2</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>342</v>
       </c>
-      <c r="T9" s="10"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -9214,10 +9205,10 @@
       <c r="Q10" s="2">
         <v>2</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>402</v>
       </c>
-      <c r="T10" s="10"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -9262,10 +9253,10 @@
       <c r="Q11" s="2">
         <v>2</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>472</v>
       </c>
-      <c r="T11" s="10"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -9310,10 +9301,10 @@
       <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>512</v>
       </c>
-      <c r="T12" s="10"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -9359,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="10"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -9405,22 +9396,22 @@
         <v>2</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="13" t="s">
+      <c r="T14" s="8"/>
+      <c r="U14" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13">
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
         <v>1400</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="11">
         <v>1484</v>
       </c>
-      <c r="Y14" s="13" t="s">
+      <c r="Y14" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13">
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11">
         <f>8+10+19</f>
         <v>37</v>
       </c>
@@ -9468,25 +9459,25 @@
       <c r="Q15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="12" t="s">
+      <c r="T15" s="8"/>
+      <c r="U15" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="11">
         <f>1/((SUM(G8:G44)-SUM(D8:D44))/AA14)</f>
         <v>1.6171328671328672E-2</v>
       </c>
-      <c r="X15" s="12" t="s">
+      <c r="X15" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="11">
         <f>AA14/(X14-W14+1)</f>
         <v>0.43529411764705883</v>
       </c>
-      <c r="Z15" s="21" t="s">
+      <c r="Z15" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="11">
         <f>(AA14-1)/(X14-W14)</f>
         <v>0.42857142857142855</v>
       </c>
@@ -9534,7 +9525,7 @@
       <c r="Q16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="10"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -9579,21 +9570,21 @@
       <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="10"/>
-      <c r="V17" s="13" t="s">
+      <c r="T17" s="8"/>
+      <c r="V17" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="11">
         <v>1485</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="11">
         <v>1498</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="Y17" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13">
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11">
         <v>4</v>
       </c>
     </row>
@@ -9640,25 +9631,25 @@
       <c r="Q18" s="2">
         <v>1</v>
       </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="12" t="s">
+      <c r="T18" s="8"/>
+      <c r="U18" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="11">
         <f>1/((SUM(G45:G48)-SUM(D45:D48))/AA17)</f>
         <v>1.6736401673640166E-2</v>
       </c>
-      <c r="X18" s="12" t="s">
+      <c r="X18" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="Y18" s="11">
         <f>AA17/(X17-W17+1)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="Z18" s="21" t="s">
+      <c r="Z18" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="11">
         <f>(AA17-1)/(X17-W17)</f>
         <v>0.23076923076923078</v>
       </c>
@@ -9706,7 +9697,7 @@
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="T19" s="10"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -9751,17 +9742,17 @@
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="8" t="s">
+      <c r="T20" s="8"/>
+      <c r="U20" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
     </row>
     <row r="21" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -9806,17 +9797,17 @@
       <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="T21" s="10"/>
-      <c r="U21" s="16" t="s">
+      <c r="T21" s="8"/>
+      <c r="U21" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
     </row>
     <row r="22" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -9861,11 +9852,11 @@
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="14" t="s">
+      <c r="T22" s="8"/>
+      <c r="U22" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="13">
         <f>1/((SUM(G49:G103)-SUM(D49:D103))/COUNT(G49:G103) )</f>
         <v>1.6845329249617149E-2</v>
       </c>
@@ -9913,20 +9904,20 @@
       <c r="Q23" s="2">
         <v>1</v>
       </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="12" t="s">
+      <c r="T23" s="8"/>
+      <c r="U23" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="11">
         <f>COUNT(D49:D103)/(D103-D49+1)</f>
         <v>0.67901234567901236</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="13">
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="11">
         <f>(COUNT(D49:D103)-1)/(D103-D49)</f>
         <v>0.67500000000000004</v>
       </c>
@@ -9976,7 +9967,7 @@
       <c r="Q24" s="2">
         <v>1</v>
       </c>
-      <c r="T24" s="10"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -10021,7 +10012,7 @@
       <c r="Q25" s="2">
         <v>1</v>
       </c>
-      <c r="T25" s="10"/>
+      <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -10066,7 +10057,7 @@
       <c r="Q26" s="2">
         <v>1</v>
       </c>
-      <c r="T26" s="10"/>
+      <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -10111,7 +10102,7 @@
       <c r="Q27" s="2">
         <v>1</v>
       </c>
-      <c r="T27" s="10"/>
+      <c r="T27" s="8"/>
     </row>
     <row r="28" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -10156,7 +10147,7 @@
       <c r="Q28" s="2">
         <v>1</v>
       </c>
-      <c r="T28" s="10"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -10201,7 +10192,7 @@
       <c r="Q29" s="2">
         <v>1</v>
       </c>
-      <c r="T29" s="10"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -10246,7 +10237,7 @@
       <c r="Q30" s="2">
         <v>3</v>
       </c>
-      <c r="T30" s="10"/>
+      <c r="T30" s="8"/>
     </row>
     <row r="31" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -10293,7 +10284,7 @@
       <c r="Q31" s="2">
         <v>1</v>
       </c>
-      <c r="T31" s="10"/>
+      <c r="T31" s="8"/>
     </row>
     <row r="32" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -10338,21 +10329,21 @@
       <c r="Q32" s="2">
         <v>1</v>
       </c>
-      <c r="T32" s="10"/>
-      <c r="V32" s="13" t="s">
+      <c r="T32" s="8"/>
+      <c r="V32" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="11">
         <v>1635</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="11">
         <v>1674</v>
       </c>
-      <c r="Y32" s="13" t="s">
+      <c r="Y32" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13">
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11">
         <v>2</v>
       </c>
     </row>
@@ -10399,18 +10390,18 @@
       <c r="Q33" s="2">
         <v>1</v>
       </c>
-      <c r="T33" s="10"/>
-      <c r="U33" s="12" t="s">
+      <c r="T33" s="8"/>
+      <c r="U33" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="11">
         <f>1/((SUM(G63:G66)-SUM(D63:D66))/AA32)</f>
         <v>1.0256410256410256E-2</v>
       </c>
-      <c r="X33" s="12" t="s">
+      <c r="X33" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="11">
         <f>AA32/(X32-W32+1)</f>
         <v>0.05</v>
       </c>
@@ -10458,7 +10449,7 @@
       <c r="Q34" s="2">
         <v>1</v>
       </c>
-      <c r="T34" s="10"/>
+      <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -10503,17 +10494,17 @@
       <c r="Q35" s="2">
         <v>1</v>
       </c>
-      <c r="T35" s="10"/>
-      <c r="U35" s="8" t="s">
+      <c r="T35" s="8"/>
+      <c r="U35" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
     </row>
     <row r="36" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -10558,26 +10549,26 @@
       <c r="Q36" s="2">
         <v>3</v>
       </c>
-      <c r="T36" s="10"/>
-      <c r="U36" s="22" t="s">
+      <c r="T36" s="8"/>
+      <c r="U36" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V36" s="22">
+      <c r="V36" s="11">
         <v>1675</v>
       </c>
-      <c r="W36" s="22">
+      <c r="W36" s="11">
         <v>1788</v>
       </c>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="20" t="s">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="Z36" s="22">
+      <c r="Z36" s="11">
         <f>COUNT(D105:D157)</f>
         <v>53</v>
       </c>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
     </row>
     <row r="37" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -10622,11 +10613,11 @@
       <c r="Q37" s="2">
         <v>3</v>
       </c>
-      <c r="T37" s="10"/>
-      <c r="U37" s="14" t="s">
+      <c r="T37" s="8"/>
+      <c r="U37" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V37" s="15">
+      <c r="V37" s="13">
         <f>1/((SUM(G105:G157)-SUM(D105:D157))/COUNT(G105:G157) )</f>
         <v>1.4588494357280483E-2</v>
       </c>
@@ -10674,20 +10665,20 @@
       <c r="Q38" s="2">
         <v>3</v>
       </c>
-      <c r="T38" s="10"/>
-      <c r="U38" s="12" t="s">
+      <c r="T38" s="8"/>
+      <c r="U38" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="11">
         <f>Z36/(W36-V36+1)</f>
         <v>0.46491228070175439</v>
       </c>
-      <c r="X38" s="17" t="s">
+      <c r="X38" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="13">
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="11">
         <f>(Z36-1)/(W36-V36)</f>
         <v>0.46017699115044247</v>
       </c>
@@ -10735,7 +10726,7 @@
       <c r="Q39" s="2">
         <v>3</v>
       </c>
-      <c r="T39" s="10"/>
+      <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -10780,7 +10771,7 @@
       <c r="Q40" s="2">
         <v>3</v>
       </c>
-      <c r="T40" s="10"/>
+      <c r="T40" s="8"/>
     </row>
     <row r="41" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -10825,7 +10816,7 @@
       <c r="Q41" s="2">
         <v>3</v>
       </c>
-      <c r="T41" s="10"/>
+      <c r="T41" s="8"/>
     </row>
     <row r="42" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -10870,7 +10861,7 @@
       <c r="Q42" s="2">
         <v>1</v>
       </c>
-      <c r="T42" s="10"/>
+      <c r="T42" s="8"/>
     </row>
     <row r="43" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -10915,7 +10906,7 @@
       <c r="Q43" s="2">
         <v>3</v>
       </c>
-      <c r="T43" s="10"/>
+      <c r="T43" s="8"/>
     </row>
     <row r="44" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -10960,7 +10951,7 @@
       <c r="Q44" s="2">
         <v>3</v>
       </c>
-      <c r="T44" s="10"/>
+      <c r="T44" s="8"/>
     </row>
     <row r="45" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -11005,7 +10996,7 @@
       <c r="Q45" s="2">
         <v>3</v>
       </c>
-      <c r="T45" s="10"/>
+      <c r="T45" s="8"/>
     </row>
     <row r="46" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -11050,7 +11041,7 @@
       <c r="Q46" s="2">
         <v>3</v>
       </c>
-      <c r="T46" s="10"/>
+      <c r="T46" s="8"/>
     </row>
     <row r="47" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -11095,17 +11086,17 @@
       <c r="Q47" s="2">
         <v>1</v>
       </c>
-      <c r="T47" s="10"/>
-      <c r="U47" s="8" t="s">
+      <c r="T47" s="8"/>
+      <c r="U47" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
     </row>
     <row r="48" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -11150,26 +11141,26 @@
       <c r="Q48" s="2">
         <v>3</v>
       </c>
-      <c r="T48" s="10"/>
-      <c r="U48" s="22" t="s">
+      <c r="T48" s="8"/>
+      <c r="U48" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V48" s="22">
+      <c r="V48" s="11">
         <v>1789</v>
       </c>
-      <c r="W48" s="22">
+      <c r="W48" s="11">
         <v>1838</v>
       </c>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="20" t="s">
+      <c r="X48" s="11"/>
+      <c r="Y48" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="Z48" s="22">
+      <c r="Z48" s="11">
         <f>COUNT(D158:D232)</f>
         <v>75</v>
       </c>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -11214,11 +11205,11 @@
       <c r="Q49" s="2">
         <v>0</v>
       </c>
-      <c r="T49" s="10"/>
-      <c r="U49" s="14" t="s">
+      <c r="T49" s="8"/>
+      <c r="U49" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V49" s="15">
+      <c r="V49" s="13">
         <f>1/((SUM(G158:G232)-SUM(D158:D232))/COUNT(G158:G232) )</f>
         <v>1.5353121801432957E-2</v>
       </c>
@@ -11266,20 +11257,20 @@
       <c r="Q50" s="2">
         <v>0</v>
       </c>
-      <c r="T50" s="10"/>
-      <c r="U50" s="12" t="s">
+      <c r="T50" s="8"/>
+      <c r="U50" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V50" s="13">
+      <c r="V50" s="11">
         <f>Z48/(W48-V48+1)</f>
         <v>1.5</v>
       </c>
-      <c r="X50" s="17" t="s">
+      <c r="X50" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="13">
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="11">
         <f>(Z48-1)/(W48-V48)</f>
         <v>1.510204081632653</v>
       </c>
@@ -11327,7 +11318,7 @@
       <c r="Q51" s="2">
         <v>0</v>
       </c>
-      <c r="T51" s="10"/>
+      <c r="T51" s="8"/>
     </row>
     <row r="52" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -11372,7 +11363,7 @@
       <c r="Q52" s="2">
         <v>0</v>
       </c>
-      <c r="T52" s="10"/>
+      <c r="T52" s="8"/>
     </row>
     <row r="53" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
@@ -11417,7 +11408,7 @@
       <c r="Q53" s="2">
         <v>1</v>
       </c>
-      <c r="T53" s="10"/>
+      <c r="T53" s="8"/>
     </row>
     <row r="54" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -11462,7 +11453,7 @@
       <c r="Q54" s="2">
         <v>0</v>
       </c>
-      <c r="T54" s="10"/>
+      <c r="T54" s="8"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -11507,7 +11498,7 @@
       <c r="Q55" s="2">
         <v>0</v>
       </c>
-      <c r="T55" s="10"/>
+      <c r="T55" s="8"/>
     </row>
     <row r="56" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -11552,7 +11543,7 @@
       <c r="Q56" s="2">
         <v>0</v>
       </c>
-      <c r="T56" s="10"/>
+      <c r="T56" s="8"/>
     </row>
     <row r="57" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -11597,7 +11588,7 @@
       <c r="Q57" s="2">
         <v>1</v>
       </c>
-      <c r="T57" s="10"/>
+      <c r="T57" s="8"/>
     </row>
     <row r="58" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -11642,7 +11633,7 @@
       <c r="Q58" s="2">
         <v>0</v>
       </c>
-      <c r="T58" s="10"/>
+      <c r="T58" s="8"/>
     </row>
     <row r="59" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
@@ -11687,17 +11678,17 @@
       <c r="Q59" s="2">
         <v>0</v>
       </c>
-      <c r="T59" s="10"/>
-      <c r="U59" s="8" t="s">
+      <c r="T59" s="8"/>
+      <c r="U59" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
     </row>
     <row r="60" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
@@ -11742,26 +11733,26 @@
       <c r="Q60" s="2">
         <v>0</v>
       </c>
-      <c r="T60" s="10"/>
-      <c r="U60" s="22" t="s">
+      <c r="T60" s="8"/>
+      <c r="U60" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V60" s="22">
+      <c r="V60" s="11">
         <v>1839</v>
       </c>
-      <c r="W60" s="22">
+      <c r="W60" s="11">
         <v>1856</v>
       </c>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="20" t="s">
+      <c r="X60" s="11"/>
+      <c r="Y60" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="Z60" s="22">
+      <c r="Z60" s="11">
         <f>COUNT(D233:D282)</f>
         <v>50</v>
       </c>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
     </row>
     <row r="61" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
@@ -11806,11 +11797,11 @@
       <c r="Q61" s="2">
         <v>2</v>
       </c>
-      <c r="T61" s="10"/>
-      <c r="U61" s="14" t="s">
+      <c r="T61" s="8"/>
+      <c r="U61" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V61" s="15">
+      <c r="V61" s="13">
         <f>1/((SUM(G233:G282)-SUM(D233:D282))/COUNT(G233:G282) )</f>
         <v>1.5225334957369061E-2</v>
       </c>
@@ -11858,20 +11849,20 @@
       <c r="Q62" s="2">
         <v>3</v>
       </c>
-      <c r="T62" s="10"/>
-      <c r="U62" s="12" t="s">
+      <c r="T62" s="8"/>
+      <c r="U62" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V62" s="13">
+      <c r="V62" s="11">
         <f>Z60/(W60-V60+1)</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="X62" s="17" t="s">
+      <c r="X62" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="13">
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="18"/>
+      <c r="AA62" s="11">
         <f>(Z60-1)/(W60-V60)</f>
         <v>2.8823529411764706</v>
       </c>
@@ -11919,7 +11910,7 @@
       <c r="Q63" s="2">
         <v>2</v>
       </c>
-      <c r="T63" s="10"/>
+      <c r="T63" s="8"/>
     </row>
     <row r="64" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
@@ -11964,7 +11955,7 @@
       <c r="Q64" s="2">
         <v>2</v>
       </c>
-      <c r="T64" s="10"/>
+      <c r="T64" s="8"/>
     </row>
     <row r="65" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -12009,7 +12000,7 @@
       <c r="Q65" s="2">
         <v>0</v>
       </c>
-      <c r="T65" s="10"/>
+      <c r="T65" s="8"/>
     </row>
     <row r="66" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -12054,7 +12045,7 @@
       <c r="Q66" s="2">
         <v>2</v>
       </c>
-      <c r="T66" s="10"/>
+      <c r="T66" s="8"/>
     </row>
     <row r="67" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -12099,7 +12090,7 @@
       <c r="Q67" s="2">
         <v>0</v>
       </c>
-      <c r="T67" s="10"/>
+      <c r="T67" s="8"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -12144,7 +12135,7 @@
       <c r="Q68" s="2">
         <v>3</v>
       </c>
-      <c r="T68" s="10"/>
+      <c r="T68" s="8"/>
     </row>
     <row r="69" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
@@ -12189,7 +12180,7 @@
       <c r="Q69" s="2">
         <v>0</v>
       </c>
-      <c r="T69" s="10"/>
+      <c r="T69" s="8"/>
     </row>
     <row r="70" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
@@ -12234,7 +12225,7 @@
       <c r="Q70" s="2">
         <v>3</v>
       </c>
-      <c r="T70" s="10"/>
+      <c r="T70" s="8"/>
     </row>
     <row r="71" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -12279,17 +12270,17 @@
       <c r="Q71" s="2">
         <v>0</v>
       </c>
-      <c r="T71" s="10"/>
-      <c r="U71" s="8" t="s">
+      <c r="T71" s="8"/>
+      <c r="U71" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
     </row>
     <row r="72" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
@@ -12334,26 +12325,26 @@
       <c r="Q72" s="2">
         <v>3</v>
       </c>
-      <c r="T72" s="10"/>
-      <c r="U72" s="22" t="s">
+      <c r="T72" s="8"/>
+      <c r="U72" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V72" s="22">
+      <c r="V72" s="11">
         <v>1857</v>
       </c>
-      <c r="W72" s="22">
+      <c r="W72" s="11">
         <v>1869</v>
       </c>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="20" t="s">
+      <c r="X72" s="11"/>
+      <c r="Y72" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="Z72" s="22">
+      <c r="Z72" s="11">
         <f>COUNT(G283:G341)</f>
         <v>59</v>
       </c>
-      <c r="AA72" s="22"/>
-      <c r="AB72" s="22"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
     </row>
     <row r="73" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
@@ -12398,11 +12389,11 @@
       <c r="Q73" s="2">
         <v>0</v>
       </c>
-      <c r="T73" s="10"/>
-      <c r="U73" s="14" t="s">
+      <c r="T73" s="8"/>
+      <c r="U73" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V73" s="15">
+      <c r="V73" s="13">
         <f>1/((SUM(G283:G341)-SUM(D283:D341))/COUNT(G283:G341) )</f>
         <v>1.5384615384615385E-2</v>
       </c>
@@ -12450,20 +12441,20 @@
       <c r="Q74" s="2">
         <v>3</v>
       </c>
-      <c r="T74" s="10"/>
-      <c r="U74" s="12" t="s">
+      <c r="T74" s="8"/>
+      <c r="U74" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V74" s="13">
+      <c r="V74" s="11">
         <f>Z72/(W72-V72+1)</f>
         <v>4.5384615384615383</v>
       </c>
-      <c r="X74" s="17" t="s">
+      <c r="X74" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="13">
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="11">
         <f>(Z72-1)/(W72-V72)</f>
         <v>4.833333333333333</v>
       </c>
@@ -12511,7 +12502,7 @@
       <c r="Q75" s="2">
         <v>1</v>
       </c>
-      <c r="T75" s="10"/>
+      <c r="T75" s="8"/>
     </row>
     <row r="76" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -12556,7 +12547,7 @@
       <c r="Q76" s="2">
         <v>3</v>
       </c>
-      <c r="T76" s="10"/>
+      <c r="T76" s="8"/>
     </row>
     <row r="77" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
@@ -12601,7 +12592,7 @@
       <c r="Q77" s="2">
         <v>0</v>
       </c>
-      <c r="T77" s="10"/>
+      <c r="T77" s="8"/>
     </row>
     <row r="78" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
@@ -12646,7 +12637,7 @@
       <c r="Q78" s="2">
         <v>3</v>
       </c>
-      <c r="T78" s="10"/>
+      <c r="T78" s="8"/>
     </row>
     <row r="79" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -12691,7 +12682,7 @@
       <c r="Q79" s="2">
         <v>3</v>
       </c>
-      <c r="T79" s="10"/>
+      <c r="T79" s="8"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
@@ -12736,7 +12727,7 @@
       <c r="Q80" s="2">
         <v>1</v>
       </c>
-      <c r="T80" s="10"/>
+      <c r="T80" s="8"/>
     </row>
     <row r="81" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
@@ -12781,7 +12772,7 @@
       <c r="Q81" s="2">
         <v>0</v>
       </c>
-      <c r="T81" s="10"/>
+      <c r="T81" s="8"/>
     </row>
     <row r="82" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
@@ -12828,7 +12819,7 @@
       <c r="Q82" s="2">
         <v>3</v>
       </c>
-      <c r="T82" s="10"/>
+      <c r="T82" s="8"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
@@ -12873,17 +12864,17 @@
       <c r="Q83" s="2">
         <v>3</v>
       </c>
-      <c r="T83" s="10"/>
-      <c r="U83" s="8" t="s">
+      <c r="T83" s="8"/>
+      <c r="U83" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
     </row>
     <row r="84" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
@@ -12928,26 +12919,26 @@
       <c r="Q84" s="2">
         <v>0</v>
       </c>
-      <c r="T84" s="10"/>
-      <c r="U84" s="22" t="s">
+      <c r="T84" s="8"/>
+      <c r="U84" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V84" s="22">
+      <c r="V84" s="11">
         <v>1870</v>
       </c>
-      <c r="W84" s="22">
+      <c r="W84" s="11">
         <v>1884</v>
       </c>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="20" t="s">
+      <c r="X84" s="11"/>
+      <c r="Y84" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="Z84" s="22">
+      <c r="Z84" s="11">
         <f>COUNT(D342:D401)</f>
         <v>60</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="11"/>
     </row>
     <row r="85" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
@@ -12992,11 +12983,11 @@
       <c r="Q85" s="2">
         <v>2</v>
       </c>
-      <c r="T85" s="10"/>
-      <c r="U85" s="14" t="s">
+      <c r="T85" s="8"/>
+      <c r="U85" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V85" s="15">
+      <c r="V85" s="13">
         <f>1/((SUM(G342:G401)-SUM(D342:D401))/COUNT(G342:G401) )</f>
         <v>1.5889830508474576E-2</v>
       </c>
@@ -13044,20 +13035,20 @@
       <c r="Q86" s="2">
         <v>2</v>
       </c>
-      <c r="T86" s="10"/>
-      <c r="U86" s="12" t="s">
+      <c r="T86" s="8"/>
+      <c r="U86" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V86" s="13">
+      <c r="V86" s="11">
         <f>Z84/(W84-V84+1)</f>
         <v>4</v>
       </c>
-      <c r="X86" s="17" t="s">
+      <c r="X86" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="19"/>
-      <c r="AA86" s="13">
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="11">
         <f>(Z84-1)/(W84-V84)</f>
         <v>4.2142857142857144</v>
       </c>
@@ -13105,7 +13096,7 @@
       <c r="Q87" s="2">
         <v>3</v>
       </c>
-      <c r="T87" s="10"/>
+      <c r="T87" s="8"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
@@ -13150,7 +13141,7 @@
       <c r="Q88" s="2">
         <v>1</v>
       </c>
-      <c r="T88" s="10"/>
+      <c r="T88" s="8"/>
     </row>
     <row r="89" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -13195,7 +13186,7 @@
       <c r="Q89" s="2">
         <v>3</v>
       </c>
-      <c r="T89" s="10"/>
+      <c r="T89" s="8"/>
     </row>
     <row r="90" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
@@ -13240,7 +13231,7 @@
       <c r="Q90" s="2">
         <v>3</v>
       </c>
-      <c r="T90" s="10"/>
+      <c r="T90" s="8"/>
     </row>
     <row r="91" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
@@ -13285,7 +13276,7 @@
       <c r="Q91" s="2">
         <v>3</v>
       </c>
-      <c r="T91" s="10"/>
+      <c r="T91" s="8"/>
     </row>
     <row r="92" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
@@ -13330,7 +13321,7 @@
       <c r="Q92" s="2">
         <v>3</v>
       </c>
-      <c r="T92" s="10"/>
+      <c r="T92" s="8"/>
     </row>
     <row r="93" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
@@ -13375,7 +13366,7 @@
       <c r="Q93" s="2">
         <v>1</v>
       </c>
-      <c r="T93" s="10"/>
+      <c r="T93" s="8"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
@@ -13420,7 +13411,7 @@
       <c r="Q94" s="2">
         <v>1</v>
       </c>
-      <c r="T94" s="10"/>
+      <c r="T94" s="8"/>
     </row>
     <row r="95" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
@@ -13465,17 +13456,17 @@
       <c r="Q95" s="2">
         <v>3</v>
       </c>
-      <c r="T95" s="10"/>
-      <c r="U95" s="8" t="s">
+      <c r="T95" s="8"/>
+      <c r="U95" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="V95" s="4"/>
-      <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="20"/>
+      <c r="AA95" s="20"/>
+      <c r="AB95" s="20"/>
     </row>
     <row r="96" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
@@ -13520,26 +13511,26 @@
       <c r="Q96" s="2">
         <v>3</v>
       </c>
-      <c r="T96" s="10"/>
-      <c r="U96" s="22" t="s">
+      <c r="T96" s="8"/>
+      <c r="U96" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V96" s="22">
+      <c r="V96" s="11">
         <v>1885</v>
       </c>
-      <c r="W96" s="22">
+      <c r="W96" s="11">
         <v>1918</v>
       </c>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="20" t="s">
+      <c r="X96" s="11"/>
+      <c r="Y96" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="Z96" s="22">
+      <c r="Z96" s="11">
         <f>COUNT(D402:D471)</f>
         <v>70</v>
       </c>
-      <c r="AA96" s="22"/>
-      <c r="AB96" s="22"/>
+      <c r="AA96" s="11"/>
+      <c r="AB96" s="11"/>
     </row>
     <row r="97" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
@@ -13584,11 +13575,11 @@
       <c r="Q97" s="2">
         <v>3</v>
       </c>
-      <c r="T97" s="10"/>
-      <c r="U97" s="14" t="s">
+      <c r="T97" s="8"/>
+      <c r="U97" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V97" s="15">
+      <c r="V97" s="13">
         <f>1/((SUM(G402:G471)-SUM(D402:D471))/COUNT(G402:G471) )</f>
         <v>1.5233949945593036E-2</v>
       </c>
@@ -13636,20 +13627,20 @@
       <c r="Q98" s="2">
         <v>3</v>
       </c>
-      <c r="T98" s="10"/>
-      <c r="U98" s="12" t="s">
+      <c r="T98" s="8"/>
+      <c r="U98" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V98" s="13">
+      <c r="V98" s="11">
         <f>Z96/(W96-V96+1)</f>
         <v>2.0588235294117645</v>
       </c>
-      <c r="X98" s="17" t="s">
+      <c r="X98" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="19"/>
-      <c r="AA98" s="13">
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="18"/>
+      <c r="AA98" s="11">
         <f>(Z96-1)/(W96-V96)</f>
         <v>2.0909090909090908</v>
       </c>
@@ -13697,7 +13688,7 @@
       <c r="Q99" s="2">
         <v>3</v>
       </c>
-      <c r="T99" s="10"/>
+      <c r="T99" s="8"/>
     </row>
     <row r="100" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
@@ -13742,7 +13733,7 @@
       <c r="Q100" s="2">
         <v>3</v>
       </c>
-      <c r="T100" s="10"/>
+      <c r="T100" s="8"/>
     </row>
     <row r="101" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
@@ -13787,7 +13778,7 @@
       <c r="Q101" s="2">
         <v>3</v>
       </c>
-      <c r="T101" s="10"/>
+      <c r="T101" s="8"/>
     </row>
     <row r="102" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
@@ -13832,7 +13823,7 @@
       <c r="Q102" s="2">
         <v>3</v>
       </c>
-      <c r="T102" s="10"/>
+      <c r="T102" s="8"/>
     </row>
     <row r="103" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
@@ -13877,7 +13868,7 @@
       <c r="Q103" s="2">
         <v>3</v>
       </c>
-      <c r="T103" s="10"/>
+      <c r="T103" s="8"/>
     </row>
     <row r="104" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -13922,7 +13913,7 @@
       <c r="Q104" s="2">
         <v>1</v>
       </c>
-      <c r="T104" s="10"/>
+      <c r="T104" s="8"/>
     </row>
     <row r="105" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
@@ -13967,7 +13958,7 @@
       <c r="Q105" s="2">
         <v>6</v>
       </c>
-      <c r="T105" s="10"/>
+      <c r="T105" s="8"/>
     </row>
     <row r="106" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
@@ -14012,7 +14003,7 @@
       <c r="Q106" s="2">
         <v>6</v>
       </c>
-      <c r="T106" s="10"/>
+      <c r="T106" s="8"/>
     </row>
     <row r="107" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
@@ -14057,17 +14048,17 @@
       <c r="Q107" s="2">
         <v>6</v>
       </c>
-      <c r="T107" s="10"/>
-      <c r="U107" s="8" t="s">
+      <c r="T107" s="8"/>
+      <c r="U107" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="V107" s="4"/>
-      <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
-      <c r="Y107" s="4"/>
-      <c r="Z107" s="4"/>
-      <c r="AA107" s="4"/>
-      <c r="AB107" s="4"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="20"/>
     </row>
     <row r="108" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
@@ -14112,26 +14103,26 @@
       <c r="Q108" s="2">
         <v>6</v>
       </c>
-      <c r="T108" s="10"/>
-      <c r="U108" s="22" t="s">
+      <c r="T108" s="8"/>
+      <c r="U108" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V108" s="22">
+      <c r="V108" s="11">
         <v>1919</v>
       </c>
-      <c r="W108" s="22">
+      <c r="W108" s="11">
         <v>1950</v>
       </c>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="20" t="s">
+      <c r="X108" s="11"/>
+      <c r="Y108" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="Z108" s="22">
+      <c r="Z108" s="11">
         <f>COUNT(D471:D511)</f>
         <v>41</v>
       </c>
-      <c r="AA108" s="22"/>
-      <c r="AB108" s="22"/>
+      <c r="AA108" s="11"/>
+      <c r="AB108" s="11"/>
     </row>
     <row r="109" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
@@ -14176,11 +14167,11 @@
       <c r="Q109" s="2">
         <v>4</v>
       </c>
-      <c r="T109" s="10"/>
-      <c r="U109" s="14" t="s">
+      <c r="T109" s="8"/>
+      <c r="U109" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="V109" s="15">
+      <c r="V109" s="13">
         <f>1/((SUM(G471:G511)-SUM(D471:D511))/COUNT(G471:G511) )</f>
         <v>1.4280738418669453E-2</v>
       </c>
@@ -14228,20 +14219,20 @@
       <c r="Q110" s="2">
         <v>4</v>
       </c>
-      <c r="T110" s="10"/>
-      <c r="U110" s="12" t="s">
+      <c r="T110" s="8"/>
+      <c r="U110" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="V110" s="13">
+      <c r="V110" s="11">
         <f>Z108/(W108-V108+1)</f>
         <v>1.28125</v>
       </c>
-      <c r="X110" s="17" t="s">
+      <c r="X110" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="Y110" s="18"/>
-      <c r="Z110" s="19"/>
-      <c r="AA110" s="13">
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="18"/>
+      <c r="AA110" s="11">
         <f>(Z108-1)/(W108-V108)</f>
         <v>1.2903225806451613</v>
       </c>
@@ -14291,7 +14282,7 @@
       <c r="Q111" s="2">
         <v>6</v>
       </c>
-      <c r="T111" s="10"/>
+      <c r="T111" s="8"/>
     </row>
     <row r="112" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
@@ -14336,7 +14327,7 @@
       <c r="Q112" s="2">
         <v>4</v>
       </c>
-      <c r="T112" s="10"/>
+      <c r="T112" s="8"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
@@ -14381,7 +14372,7 @@
       <c r="Q113" s="2">
         <v>4</v>
       </c>
-      <c r="T113" s="10"/>
+      <c r="T113" s="8"/>
     </row>
     <row r="114" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
@@ -14426,7 +14417,7 @@
       <c r="Q114" s="2">
         <v>6</v>
       </c>
-      <c r="T114" s="10"/>
+      <c r="T114" s="8"/>
     </row>
     <row r="115" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
@@ -14471,7 +14462,7 @@
       <c r="Q115" s="2">
         <v>4</v>
       </c>
-      <c r="T115" s="10"/>
+      <c r="T115" s="8"/>
     </row>
     <row r="116" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -14516,7 +14507,7 @@
       <c r="Q116" s="2">
         <v>4</v>
       </c>
-      <c r="T116" s="10"/>
+      <c r="T116" s="8"/>
     </row>
     <row r="117" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
@@ -14561,7 +14552,7 @@
       <c r="Q117" s="2">
         <v>5</v>
       </c>
-      <c r="T117" s="10"/>
+      <c r="T117" s="8"/>
     </row>
     <row r="118" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
@@ -14606,7 +14597,7 @@
       <c r="Q118" s="2">
         <v>6</v>
       </c>
-      <c r="T118" s="10"/>
+      <c r="T118" s="8"/>
     </row>
     <row r="119" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -14651,7 +14642,7 @@
       <c r="Q119" s="2">
         <v>6</v>
       </c>
-      <c r="T119" s="10"/>
+      <c r="T119" s="8"/>
     </row>
     <row r="120" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
@@ -14696,7 +14687,7 @@
       <c r="Q120" s="2">
         <v>6</v>
       </c>
-      <c r="T120" s="10"/>
+      <c r="T120" s="8"/>
     </row>
     <row r="121" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
@@ -14741,7 +14732,7 @@
       <c r="Q121" s="2">
         <v>4</v>
       </c>
-      <c r="T121" s="10"/>
+      <c r="T121" s="8"/>
     </row>
     <row r="122" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
@@ -14786,7 +14777,7 @@
       <c r="Q122" s="2">
         <v>4</v>
       </c>
-      <c r="T122" s="10"/>
+      <c r="T122" s="8"/>
     </row>
     <row r="123" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
@@ -14831,7 +14822,7 @@
       <c r="Q123" s="2">
         <v>6</v>
       </c>
-      <c r="T123" s="10"/>
+      <c r="T123" s="8"/>
     </row>
     <row r="124" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
@@ -14876,7 +14867,7 @@
       <c r="Q124" s="2">
         <v>4</v>
       </c>
-      <c r="T124" s="10"/>
+      <c r="T124" s="8"/>
     </row>
     <row r="125" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -14921,7 +14912,7 @@
       <c r="Q125" s="2">
         <v>3</v>
       </c>
-      <c r="T125" s="10"/>
+      <c r="T125" s="8"/>
     </row>
     <row r="126" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
@@ -14966,7 +14957,7 @@
       <c r="Q126" s="2">
         <v>3</v>
       </c>
-      <c r="T126" s="10"/>
+      <c r="T126" s="8"/>
     </row>
     <row r="127" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
@@ -15011,7 +15002,7 @@
       <c r="Q127" s="2">
         <v>4</v>
       </c>
-      <c r="T127" s="10"/>
+      <c r="T127" s="8"/>
     </row>
     <row r="128" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
@@ -15056,7 +15047,7 @@
       <c r="Q128" s="2">
         <v>4</v>
       </c>
-      <c r="T128" s="10"/>
+      <c r="T128" s="8"/>
     </row>
     <row r="129" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
@@ -15101,7 +15092,7 @@
       <c r="Q129" s="2">
         <v>5</v>
       </c>
-      <c r="T129" s="10"/>
+      <c r="T129" s="8"/>
     </row>
     <row r="130" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
@@ -15146,7 +15137,7 @@
       <c r="Q130" s="2">
         <v>3</v>
       </c>
-      <c r="T130" s="10"/>
+      <c r="T130" s="8"/>
     </row>
     <row r="131" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
@@ -15191,7 +15182,7 @@
       <c r="Q131" s="2">
         <v>4</v>
       </c>
-      <c r="T131" s="10"/>
+      <c r="T131" s="8"/>
     </row>
     <row r="132" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
@@ -15236,7 +15227,7 @@
       <c r="Q132" s="2">
         <v>4</v>
       </c>
-      <c r="T132" s="10"/>
+      <c r="T132" s="8"/>
     </row>
     <row r="133" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
@@ -15281,7 +15272,7 @@
       <c r="Q133" s="2">
         <v>3</v>
       </c>
-      <c r="T133" s="10"/>
+      <c r="T133" s="8"/>
     </row>
     <row r="134" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
@@ -15326,7 +15317,7 @@
       <c r="Q134" s="2">
         <v>3</v>
       </c>
-      <c r="T134" s="10"/>
+      <c r="T134" s="8"/>
     </row>
     <row r="135" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
@@ -15371,7 +15362,7 @@
       <c r="Q135" s="2">
         <v>3</v>
       </c>
-      <c r="T135" s="10"/>
+      <c r="T135" s="8"/>
     </row>
     <row r="136" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
@@ -15416,7 +15407,7 @@
       <c r="Q136" s="2">
         <v>3</v>
       </c>
-      <c r="T136" s="10"/>
+      <c r="T136" s="8"/>
     </row>
     <row r="137" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
@@ -15461,7 +15452,7 @@
       <c r="Q137" s="2">
         <v>4</v>
       </c>
-      <c r="T137" s="10"/>
+      <c r="T137" s="8"/>
     </row>
     <row r="138" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
@@ -15506,7 +15497,7 @@
       <c r="Q138" s="2">
         <v>3</v>
       </c>
-      <c r="T138" s="10"/>
+      <c r="T138" s="8"/>
     </row>
     <row r="139" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
@@ -15551,7 +15542,7 @@
       <c r="Q139" s="2">
         <v>3</v>
       </c>
-      <c r="T139" s="10"/>
+      <c r="T139" s="8"/>
     </row>
     <row r="140" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
@@ -15596,7 +15587,7 @@
       <c r="Q140" s="2">
         <v>3</v>
       </c>
-      <c r="T140" s="10"/>
+      <c r="T140" s="8"/>
     </row>
     <row r="141" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
@@ -15641,7 +15632,7 @@
       <c r="Q141" s="2">
         <v>3</v>
       </c>
-      <c r="T141" s="10"/>
+      <c r="T141" s="8"/>
     </row>
     <row r="142" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
@@ -15686,7 +15677,7 @@
       <c r="Q142" s="2">
         <v>3</v>
       </c>
-      <c r="T142" s="10"/>
+      <c r="T142" s="8"/>
     </row>
     <row r="143" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
@@ -15731,7 +15722,7 @@
       <c r="Q143" s="2">
         <v>4</v>
       </c>
-      <c r="T143" s="10"/>
+      <c r="T143" s="8"/>
     </row>
     <row r="144" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
@@ -15778,7 +15769,7 @@
       <c r="Q144" s="2">
         <v>3</v>
       </c>
-      <c r="T144" s="10"/>
+      <c r="T144" s="8"/>
     </row>
     <row r="145" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -15823,7 +15814,7 @@
       <c r="Q145" s="2">
         <v>3</v>
       </c>
-      <c r="T145" s="10"/>
+      <c r="T145" s="8"/>
     </row>
     <row r="146" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
@@ -15868,7 +15859,7 @@
       <c r="Q146" s="2">
         <v>4</v>
       </c>
-      <c r="T146" s="10"/>
+      <c r="T146" s="8"/>
     </row>
     <row r="147" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
@@ -15913,7 +15904,7 @@
       <c r="Q147" s="2">
         <v>4</v>
       </c>
-      <c r="T147" s="10"/>
+      <c r="T147" s="8"/>
     </row>
     <row r="148" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
@@ -15958,7 +15949,7 @@
       <c r="Q148" s="2">
         <v>3</v>
       </c>
-      <c r="T148" s="10"/>
+      <c r="T148" s="8"/>
     </row>
     <row r="149" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
@@ -16003,7 +15994,7 @@
       <c r="Q149" s="2">
         <v>3</v>
       </c>
-      <c r="T149" s="10"/>
+      <c r="T149" s="8"/>
     </row>
     <row r="150" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
@@ -16048,7 +16039,7 @@
       <c r="Q150" s="2">
         <v>3</v>
       </c>
-      <c r="T150" s="10"/>
+      <c r="T150" s="8"/>
     </row>
     <row r="151" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
@@ -16093,7 +16084,7 @@
       <c r="Q151" s="2">
         <v>4</v>
       </c>
-      <c r="T151" s="10"/>
+      <c r="T151" s="8"/>
     </row>
     <row r="152" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
@@ -16138,7 +16129,7 @@
       <c r="Q152" s="2">
         <v>0</v>
       </c>
-      <c r="T152" s="10"/>
+      <c r="T152" s="8"/>
     </row>
     <row r="153" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
@@ -16183,7 +16174,7 @@
       <c r="Q153" s="2">
         <v>3</v>
       </c>
-      <c r="T153" s="10"/>
+      <c r="T153" s="8"/>
     </row>
     <row r="154" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
@@ -16230,7 +16221,7 @@
       <c r="Q154" s="2">
         <v>3</v>
       </c>
-      <c r="T154" s="10"/>
+      <c r="T154" s="8"/>
     </row>
     <row r="155" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
@@ -16275,7 +16266,7 @@
       <c r="Q155" s="2">
         <v>2</v>
       </c>
-      <c r="T155" s="10"/>
+      <c r="T155" s="8"/>
     </row>
     <row r="156" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
@@ -16320,7 +16311,7 @@
       <c r="Q156" s="2">
         <v>2</v>
       </c>
-      <c r="T156" s="10"/>
+      <c r="T156" s="8"/>
     </row>
     <row r="157" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
@@ -16365,7 +16356,7 @@
       <c r="Q157" s="2">
         <v>1</v>
       </c>
-      <c r="T157" s="10"/>
+      <c r="T157" s="8"/>
     </row>
     <row r="158" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
@@ -16410,7 +16401,7 @@
       <c r="Q158" s="2">
         <v>1</v>
       </c>
-      <c r="T158" s="10"/>
+      <c r="T158" s="8"/>
     </row>
     <row r="159" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
@@ -16455,7 +16446,7 @@
       <c r="Q159" s="2">
         <v>0</v>
       </c>
-      <c r="T159" s="10"/>
+      <c r="T159" s="8"/>
     </row>
     <row r="160" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
@@ -16500,7 +16491,7 @@
       <c r="Q160" s="2">
         <v>1</v>
       </c>
-      <c r="T160" s="10"/>
+      <c r="T160" s="8"/>
     </row>
     <row r="161" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
@@ -16545,7 +16536,7 @@
       <c r="Q161" s="2">
         <v>1</v>
       </c>
-      <c r="T161" s="10"/>
+      <c r="T161" s="8"/>
     </row>
     <row r="162" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
@@ -16590,7 +16581,7 @@
       <c r="Q162" s="2">
         <v>1</v>
       </c>
-      <c r="T162" s="10"/>
+      <c r="T162" s="8"/>
     </row>
     <row r="163" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
@@ -16635,7 +16626,7 @@
       <c r="Q163" s="2">
         <v>1</v>
       </c>
-      <c r="T163" s="10"/>
+      <c r="T163" s="8"/>
     </row>
     <row r="164" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
@@ -16680,7 +16671,7 @@
       <c r="Q164" s="2">
         <v>2</v>
       </c>
-      <c r="T164" s="10"/>
+      <c r="T164" s="8"/>
     </row>
     <row r="165" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
@@ -16725,7 +16716,7 @@
       <c r="Q165" s="2">
         <v>2</v>
       </c>
-      <c r="T165" s="10"/>
+      <c r="T165" s="8"/>
     </row>
     <row r="166" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
@@ -16770,7 +16761,7 @@
       <c r="Q166" s="2">
         <v>2</v>
       </c>
-      <c r="T166" s="10"/>
+      <c r="T166" s="8"/>
     </row>
     <row r="167" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
@@ -16815,7 +16806,7 @@
       <c r="Q167" s="2">
         <v>1</v>
       </c>
-      <c r="T167" s="10"/>
+      <c r="T167" s="8"/>
     </row>
     <row r="168" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
@@ -16860,7 +16851,7 @@
       <c r="Q168" s="2">
         <v>2</v>
       </c>
-      <c r="T168" s="10"/>
+      <c r="T168" s="8"/>
     </row>
     <row r="169" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -16905,7 +16896,7 @@
       <c r="Q169" s="2">
         <v>2</v>
       </c>
-      <c r="T169" s="10"/>
+      <c r="T169" s="8"/>
     </row>
     <row r="170" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
@@ -16950,7 +16941,7 @@
       <c r="Q170" s="2">
         <v>0</v>
       </c>
-      <c r="T170" s="10"/>
+      <c r="T170" s="8"/>
     </row>
     <row r="171" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
@@ -16995,7 +16986,7 @@
       <c r="Q171" s="2">
         <v>1</v>
       </c>
-      <c r="T171" s="10"/>
+      <c r="T171" s="8"/>
     </row>
     <row r="172" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
@@ -17040,7 +17031,7 @@
       <c r="Q172" s="2">
         <v>0</v>
       </c>
-      <c r="T172" s="10"/>
+      <c r="T172" s="8"/>
     </row>
     <row r="173" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
@@ -17085,7 +17076,7 @@
       <c r="Q173" s="2">
         <v>1</v>
       </c>
-      <c r="T173" s="10"/>
+      <c r="T173" s="8"/>
     </row>
     <row r="174" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
@@ -17130,7 +17121,7 @@
       <c r="Q174" s="2">
         <v>0</v>
       </c>
-      <c r="T174" s="10"/>
+      <c r="T174" s="8"/>
     </row>
     <row r="175" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
@@ -17175,7 +17166,7 @@
       <c r="Q175" s="2">
         <v>0</v>
       </c>
-      <c r="T175" s="10"/>
+      <c r="T175" s="8"/>
     </row>
     <row r="176" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
@@ -17220,7 +17211,7 @@
       <c r="Q176" s="2">
         <v>2</v>
       </c>
-      <c r="T176" s="10"/>
+      <c r="T176" s="8"/>
     </row>
     <row r="177" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
@@ -17265,7 +17256,7 @@
       <c r="Q177" s="2">
         <v>3</v>
       </c>
-      <c r="T177" s="10"/>
+      <c r="T177" s="8"/>
     </row>
     <row r="178" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
@@ -17310,7 +17301,7 @@
       <c r="Q178" s="2">
         <v>1</v>
       </c>
-      <c r="T178" s="10"/>
+      <c r="T178" s="8"/>
     </row>
     <row r="179" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
@@ -17355,7 +17346,7 @@
       <c r="Q179" s="2">
         <v>2</v>
       </c>
-      <c r="T179" s="10"/>
+      <c r="T179" s="8"/>
     </row>
     <row r="180" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
@@ -17400,7 +17391,7 @@
       <c r="Q180" s="2">
         <v>1</v>
       </c>
-      <c r="T180" s="10"/>
+      <c r="T180" s="8"/>
     </row>
     <row r="181" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
@@ -17445,7 +17436,7 @@
       <c r="Q181" s="2">
         <v>1</v>
       </c>
-      <c r="T181" s="10"/>
+      <c r="T181" s="8"/>
     </row>
     <row r="182" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
@@ -17490,7 +17481,7 @@
       <c r="Q182" s="2">
         <v>0</v>
       </c>
-      <c r="T182" s="10"/>
+      <c r="T182" s="8"/>
     </row>
     <row r="183" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
@@ -17535,7 +17526,7 @@
       <c r="Q183" s="2">
         <v>2</v>
       </c>
-      <c r="T183" s="10"/>
+      <c r="T183" s="8"/>
     </row>
     <row r="184" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
@@ -17580,7 +17571,7 @@
       <c r="Q184" s="2">
         <v>4</v>
       </c>
-      <c r="T184" s="10"/>
+      <c r="T184" s="8"/>
     </row>
     <row r="185" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
@@ -17625,7 +17616,7 @@
       <c r="Q185" s="2">
         <v>2</v>
       </c>
-      <c r="T185" s="10"/>
+      <c r="T185" s="8"/>
     </row>
     <row r="186" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
@@ -17670,7 +17661,7 @@
       <c r="Q186" s="2">
         <v>0</v>
       </c>
-      <c r="T186" s="10"/>
+      <c r="T186" s="8"/>
     </row>
     <row r="187" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
@@ -17715,7 +17706,7 @@
       <c r="Q187" s="2">
         <v>1</v>
       </c>
-      <c r="T187" s="10"/>
+      <c r="T187" s="8"/>
     </row>
     <row r="188" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
@@ -17760,7 +17751,7 @@
       <c r="Q188" s="2">
         <v>0</v>
       </c>
-      <c r="T188" s="10"/>
+      <c r="T188" s="8"/>
     </row>
     <row r="189" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
@@ -17805,7 +17796,7 @@
       <c r="Q189" s="2">
         <v>2</v>
       </c>
-      <c r="T189" s="10"/>
+      <c r="T189" s="8"/>
     </row>
     <row r="190" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
@@ -17850,7 +17841,7 @@
       <c r="Q190" s="2">
         <v>1</v>
       </c>
-      <c r="T190" s="10"/>
+      <c r="T190" s="8"/>
     </row>
     <row r="191" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
@@ -17895,7 +17886,7 @@
       <c r="Q191" s="2">
         <v>2</v>
       </c>
-      <c r="T191" s="10"/>
+      <c r="T191" s="8"/>
     </row>
     <row r="192" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
@@ -17940,7 +17931,7 @@
       <c r="Q192" s="2">
         <v>1</v>
       </c>
-      <c r="T192" s="10"/>
+      <c r="T192" s="8"/>
     </row>
     <row r="193" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
@@ -17985,7 +17976,7 @@
       <c r="Q193" s="2">
         <v>1</v>
       </c>
-      <c r="T193" s="10"/>
+      <c r="T193" s="8"/>
     </row>
     <row r="194" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
@@ -18030,7 +18021,7 @@
       <c r="Q194" s="2">
         <v>0</v>
       </c>
-      <c r="T194" s="10"/>
+      <c r="T194" s="8"/>
     </row>
     <row r="195" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
@@ -18075,7 +18066,7 @@
       <c r="Q195" s="2">
         <v>1</v>
       </c>
-      <c r="T195" s="10"/>
+      <c r="T195" s="8"/>
     </row>
     <row r="196" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
@@ -18120,7 +18111,7 @@
       <c r="Q196" s="2">
         <v>0</v>
       </c>
-      <c r="T196" s="10"/>
+      <c r="T196" s="8"/>
     </row>
     <row r="197" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
@@ -18165,7 +18156,7 @@
       <c r="Q197" s="2">
         <v>0</v>
       </c>
-      <c r="T197" s="10"/>
+      <c r="T197" s="8"/>
     </row>
     <row r="198" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
@@ -18210,7 +18201,7 @@
       <c r="Q198" s="2">
         <v>0</v>
       </c>
-      <c r="T198" s="10"/>
+      <c r="T198" s="8"/>
     </row>
     <row r="199" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
@@ -18255,7 +18246,7 @@
       <c r="Q199" s="2">
         <v>0</v>
       </c>
-      <c r="T199" s="10"/>
+      <c r="T199" s="8"/>
     </row>
     <row r="200" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
@@ -18300,7 +18291,7 @@
       <c r="Q200" s="2">
         <v>2</v>
       </c>
-      <c r="T200" s="10"/>
+      <c r="T200" s="8"/>
     </row>
     <row r="201" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
@@ -18345,7 +18336,7 @@
       <c r="Q201" s="2">
         <v>0</v>
       </c>
-      <c r="T201" s="10"/>
+      <c r="T201" s="8"/>
     </row>
     <row r="202" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
@@ -18390,7 +18381,7 @@
       <c r="Q202" s="2">
         <v>5</v>
       </c>
-      <c r="T202" s="10"/>
+      <c r="T202" s="8"/>
     </row>
     <row r="203" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
@@ -18435,7 +18426,7 @@
       <c r="Q203" s="2">
         <v>1</v>
       </c>
-      <c r="T203" s="10"/>
+      <c r="T203" s="8"/>
     </row>
     <row r="204" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
@@ -18480,7 +18471,7 @@
       <c r="Q204" s="2">
         <v>0</v>
       </c>
-      <c r="T204" s="10"/>
+      <c r="T204" s="8"/>
     </row>
     <row r="205" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
@@ -18525,7 +18516,7 @@
       <c r="Q205" s="2">
         <v>4</v>
       </c>
-      <c r="T205" s="10"/>
+      <c r="T205" s="8"/>
     </row>
     <row r="206" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
@@ -18570,7 +18561,7 @@
       <c r="Q206" s="2">
         <v>4</v>
       </c>
-      <c r="T206" s="10"/>
+      <c r="T206" s="8"/>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
@@ -18615,7 +18606,7 @@
       <c r="Q207" s="2">
         <v>0</v>
       </c>
-      <c r="T207" s="10"/>
+      <c r="T207" s="8"/>
     </row>
     <row r="208" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
@@ -18660,7 +18651,7 @@
       <c r="Q208" s="2">
         <v>2</v>
       </c>
-      <c r="T208" s="10"/>
+      <c r="T208" s="8"/>
     </row>
     <row r="209" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
@@ -18705,7 +18696,7 @@
       <c r="Q209" s="2">
         <v>1</v>
       </c>
-      <c r="T209" s="10"/>
+      <c r="T209" s="8"/>
     </row>
     <row r="210" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
@@ -18750,7 +18741,7 @@
       <c r="Q210" s="2">
         <v>2</v>
       </c>
-      <c r="T210" s="10"/>
+      <c r="T210" s="8"/>
     </row>
     <row r="211" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
@@ -18795,7 +18786,7 @@
       <c r="Q211" s="2">
         <v>2</v>
       </c>
-      <c r="T211" s="10"/>
+      <c r="T211" s="8"/>
     </row>
     <row r="212" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
@@ -18840,7 +18831,7 @@
       <c r="Q212" s="2">
         <v>2</v>
       </c>
-      <c r="T212" s="10"/>
+      <c r="T212" s="8"/>
     </row>
     <row r="213" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
@@ -18885,7 +18876,7 @@
       <c r="Q213" s="2">
         <v>0</v>
       </c>
-      <c r="T213" s="10"/>
+      <c r="T213" s="8"/>
     </row>
     <row r="214" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
@@ -18930,7 +18921,7 @@
       <c r="Q214" s="2">
         <v>0</v>
       </c>
-      <c r="T214" s="10"/>
+      <c r="T214" s="8"/>
     </row>
     <row r="215" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
@@ -18975,7 +18966,7 @@
       <c r="Q215" s="2">
         <v>4</v>
       </c>
-      <c r="T215" s="10"/>
+      <c r="T215" s="8"/>
     </row>
     <row r="216" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
@@ -19020,7 +19011,7 @@
       <c r="Q216" s="2">
         <v>0</v>
       </c>
-      <c r="T216" s="10"/>
+      <c r="T216" s="8"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
@@ -19065,7 +19056,7 @@
       <c r="Q217" s="2">
         <v>4</v>
       </c>
-      <c r="T217" s="10"/>
+      <c r="T217" s="8"/>
     </row>
     <row r="218" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
@@ -19110,7 +19101,7 @@
       <c r="Q218" s="2">
         <v>4</v>
       </c>
-      <c r="T218" s="10"/>
+      <c r="T218" s="8"/>
     </row>
     <row r="219" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
@@ -19155,7 +19146,7 @@
       <c r="Q219" s="2">
         <v>1</v>
       </c>
-      <c r="T219" s="10"/>
+      <c r="T219" s="8"/>
     </row>
     <row r="220" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
@@ -19200,7 +19191,7 @@
       <c r="Q220" s="2">
         <v>2</v>
       </c>
-      <c r="T220" s="10"/>
+      <c r="T220" s="8"/>
     </row>
     <row r="221" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
@@ -19245,7 +19236,7 @@
       <c r="Q221" s="2">
         <v>1</v>
       </c>
-      <c r="T221" s="10"/>
+      <c r="T221" s="8"/>
     </row>
     <row r="222" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
@@ -19290,7 +19281,7 @@
       <c r="Q222" s="2">
         <v>2</v>
       </c>
-      <c r="T222" s="10"/>
+      <c r="T222" s="8"/>
     </row>
     <row r="223" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
@@ -19335,7 +19326,7 @@
       <c r="Q223" s="2">
         <v>0</v>
       </c>
-      <c r="T223" s="10"/>
+      <c r="T223" s="8"/>
     </row>
     <row r="224" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
@@ -19380,7 +19371,7 @@
       <c r="Q224" s="2">
         <v>0</v>
       </c>
-      <c r="T224" s="10"/>
+      <c r="T224" s="8"/>
     </row>
     <row r="225" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
@@ -19425,7 +19416,7 @@
       <c r="Q225" s="2">
         <v>1</v>
       </c>
-      <c r="T225" s="10"/>
+      <c r="T225" s="8"/>
     </row>
     <row r="226" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
@@ -19470,7 +19461,7 @@
       <c r="Q226" s="2">
         <v>4</v>
       </c>
-      <c r="T226" s="10"/>
+      <c r="T226" s="8"/>
     </row>
     <row r="227" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
@@ -19515,7 +19506,7 @@
       <c r="Q227" s="2">
         <v>2</v>
       </c>
-      <c r="T227" s="10"/>
+      <c r="T227" s="8"/>
     </row>
     <row r="228" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
@@ -19560,7 +19551,7 @@
       <c r="Q228" s="2">
         <v>0</v>
       </c>
-      <c r="T228" s="10"/>
+      <c r="T228" s="8"/>
     </row>
     <row r="229" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
@@ -19605,7 +19596,7 @@
       <c r="Q229" s="2">
         <v>0</v>
       </c>
-      <c r="T229" s="10"/>
+      <c r="T229" s="8"/>
     </row>
     <row r="230" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
@@ -19650,7 +19641,7 @@
       <c r="Q230" s="2">
         <v>2</v>
       </c>
-      <c r="T230" s="10"/>
+      <c r="T230" s="8"/>
     </row>
     <row r="231" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
@@ -19695,7 +19686,7 @@
       <c r="Q231" s="2">
         <v>0</v>
       </c>
-      <c r="T231" s="10"/>
+      <c r="T231" s="8"/>
     </row>
     <row r="232" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
@@ -19740,7 +19731,7 @@
       <c r="Q232" s="2">
         <v>4</v>
       </c>
-      <c r="T232" s="10"/>
+      <c r="T232" s="8"/>
     </row>
     <row r="233" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
@@ -19785,7 +19776,7 @@
       <c r="Q233" s="2">
         <v>1</v>
       </c>
-      <c r="T233" s="10"/>
+      <c r="T233" s="8"/>
     </row>
     <row r="234" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
@@ -19830,7 +19821,7 @@
       <c r="Q234" s="2">
         <v>1</v>
       </c>
-      <c r="T234" s="10"/>
+      <c r="T234" s="8"/>
     </row>
     <row r="235" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
@@ -19875,7 +19866,7 @@
       <c r="Q235" s="2">
         <v>3</v>
       </c>
-      <c r="T235" s="10"/>
+      <c r="T235" s="8"/>
     </row>
     <row r="236" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
@@ -19922,7 +19913,7 @@
       <c r="Q236" s="2">
         <v>1</v>
       </c>
-      <c r="T236" s="10"/>
+      <c r="T236" s="8"/>
     </row>
     <row r="237" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
@@ -19967,7 +19958,7 @@
       <c r="Q237" s="2">
         <v>1</v>
       </c>
-      <c r="T237" s="10"/>
+      <c r="T237" s="8"/>
     </row>
     <row r="238" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
@@ -20012,7 +20003,7 @@
       <c r="Q238" s="2">
         <v>1</v>
       </c>
-      <c r="T238" s="10"/>
+      <c r="T238" s="8"/>
     </row>
     <row r="239" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
@@ -20057,7 +20048,7 @@
       <c r="Q239" s="2">
         <v>1</v>
       </c>
-      <c r="T239" s="10"/>
+      <c r="T239" s="8"/>
     </row>
     <row r="240" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
@@ -20102,7 +20093,7 @@
       <c r="Q240" s="2">
         <v>0</v>
       </c>
-      <c r="T240" s="10"/>
+      <c r="T240" s="8"/>
     </row>
     <row r="241" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
@@ -20147,7 +20138,7 @@
       <c r="Q241" s="2">
         <v>1</v>
       </c>
-      <c r="T241" s="10"/>
+      <c r="T241" s="8"/>
     </row>
     <row r="242" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
@@ -20192,7 +20183,7 @@
       <c r="Q242" s="2">
         <v>1</v>
       </c>
-      <c r="T242" s="10"/>
+      <c r="T242" s="8"/>
     </row>
     <row r="243" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
@@ -20237,7 +20228,7 @@
       <c r="Q243" s="2">
         <v>1</v>
       </c>
-      <c r="T243" s="10"/>
+      <c r="T243" s="8"/>
     </row>
     <row r="244" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
@@ -20282,7 +20273,7 @@
       <c r="Q244" s="2">
         <v>1</v>
       </c>
-      <c r="T244" s="10"/>
+      <c r="T244" s="8"/>
     </row>
     <row r="245" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
@@ -20327,7 +20318,7 @@
       <c r="Q245" s="2">
         <v>1</v>
       </c>
-      <c r="T245" s="10"/>
+      <c r="T245" s="8"/>
     </row>
     <row r="246" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
@@ -20372,7 +20363,7 @@
       <c r="Q246" s="2">
         <v>3</v>
       </c>
-      <c r="T246" s="10"/>
+      <c r="T246" s="8"/>
     </row>
     <row r="247" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
@@ -20417,7 +20408,7 @@
       <c r="Q247" s="2">
         <v>3</v>
       </c>
-      <c r="T247" s="10"/>
+      <c r="T247" s="8"/>
     </row>
     <row r="248" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
@@ -20462,7 +20453,7 @@
       <c r="Q248" s="2">
         <v>3</v>
       </c>
-      <c r="T248" s="10"/>
+      <c r="T248" s="8"/>
     </row>
     <row r="249" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
@@ -20509,7 +20500,7 @@
       <c r="Q249" s="2">
         <v>3</v>
       </c>
-      <c r="T249" s="10"/>
+      <c r="T249" s="8"/>
     </row>
     <row r="250" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
@@ -20554,7 +20545,7 @@
       <c r="Q250" s="2">
         <v>2</v>
       </c>
-      <c r="T250" s="10"/>
+      <c r="T250" s="8"/>
     </row>
     <row r="251" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
@@ -20599,7 +20590,7 @@
       <c r="Q251" s="2">
         <v>3</v>
       </c>
-      <c r="T251" s="10"/>
+      <c r="T251" s="8"/>
     </row>
     <row r="252" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
@@ -20644,7 +20635,7 @@
       <c r="Q252" s="2">
         <v>2</v>
       </c>
-      <c r="T252" s="10"/>
+      <c r="T252" s="8"/>
     </row>
     <row r="253" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
@@ -20689,7 +20680,7 @@
       <c r="Q253" s="2">
         <v>0</v>
       </c>
-      <c r="T253" s="10"/>
+      <c r="T253" s="8"/>
     </row>
     <row r="254" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
@@ -20734,7 +20725,7 @@
       <c r="Q254" s="2">
         <v>3</v>
       </c>
-      <c r="T254" s="10"/>
+      <c r="T254" s="8"/>
     </row>
     <row r="255" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
@@ -20779,7 +20770,7 @@
       <c r="Q255" s="2">
         <v>0</v>
       </c>
-      <c r="T255" s="10"/>
+      <c r="T255" s="8"/>
     </row>
     <row r="256" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
@@ -20824,7 +20815,7 @@
       <c r="Q256" s="2">
         <v>1</v>
       </c>
-      <c r="T256" s="10"/>
+      <c r="T256" s="8"/>
     </row>
     <row r="257" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
@@ -20869,7 +20860,7 @@
       <c r="Q257" s="2">
         <v>1</v>
       </c>
-      <c r="T257" s="10"/>
+      <c r="T257" s="8"/>
     </row>
     <row r="258" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
@@ -20914,7 +20905,7 @@
       <c r="Q258" s="2">
         <v>1</v>
       </c>
-      <c r="T258" s="10"/>
+      <c r="T258" s="8"/>
     </row>
     <row r="259" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
@@ -20961,7 +20952,7 @@
       <c r="Q259" s="2">
         <v>1</v>
       </c>
-      <c r="T259" s="10"/>
+      <c r="T259" s="8"/>
     </row>
     <row r="260" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
@@ -21006,7 +20997,7 @@
       <c r="Q260" s="2">
         <v>3</v>
       </c>
-      <c r="T260" s="10"/>
+      <c r="T260" s="8"/>
     </row>
     <row r="261" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
@@ -21051,7 +21042,7 @@
       <c r="Q261" s="2">
         <v>3</v>
       </c>
-      <c r="T261" s="10"/>
+      <c r="T261" s="8"/>
     </row>
     <row r="262" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
@@ -21096,7 +21087,7 @@
       <c r="Q262" s="2">
         <v>0</v>
       </c>
-      <c r="T262" s="10"/>
+      <c r="T262" s="8"/>
     </row>
     <row r="263" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
@@ -21141,7 +21132,7 @@
       <c r="Q263" s="2">
         <v>1</v>
       </c>
-      <c r="T263" s="10"/>
+      <c r="T263" s="8"/>
     </row>
     <row r="264" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
@@ -21186,7 +21177,7 @@
       <c r="Q264" s="2">
         <v>0</v>
       </c>
-      <c r="T264" s="10"/>
+      <c r="T264" s="8"/>
     </row>
     <row r="265" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
@@ -21231,7 +21222,7 @@
       <c r="Q265" s="2">
         <v>2</v>
       </c>
-      <c r="T265" s="10"/>
+      <c r="T265" s="8"/>
     </row>
     <row r="266" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
@@ -21276,7 +21267,7 @@
       <c r="Q266" s="2">
         <v>2</v>
       </c>
-      <c r="T266" s="10"/>
+      <c r="T266" s="8"/>
     </row>
     <row r="267" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
@@ -21321,7 +21312,7 @@
       <c r="Q267" s="2">
         <v>1</v>
       </c>
-      <c r="T267" s="10"/>
+      <c r="T267" s="8"/>
     </row>
     <row r="268" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
@@ -21366,7 +21357,7 @@
       <c r="Q268" s="2">
         <v>2</v>
       </c>
-      <c r="T268" s="10"/>
+      <c r="T268" s="8"/>
     </row>
     <row r="269" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
@@ -21411,7 +21402,7 @@
       <c r="Q269" s="2">
         <v>0</v>
       </c>
-      <c r="T269" s="10"/>
+      <c r="T269" s="8"/>
     </row>
     <row r="270" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
@@ -21456,7 +21447,7 @@
       <c r="Q270" s="2">
         <v>2</v>
       </c>
-      <c r="T270" s="10"/>
+      <c r="T270" s="8"/>
     </row>
     <row r="271" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
@@ -21501,7 +21492,7 @@
       <c r="Q271" s="2">
         <v>0</v>
       </c>
-      <c r="T271" s="10"/>
+      <c r="T271" s="8"/>
     </row>
     <row r="272" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
@@ -21546,7 +21537,7 @@
       <c r="Q272" s="2">
         <v>2</v>
       </c>
-      <c r="T272" s="10"/>
+      <c r="T272" s="8"/>
     </row>
     <row r="273" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
@@ -21591,7 +21582,7 @@
       <c r="Q273" s="2">
         <v>5</v>
       </c>
-      <c r="T273" s="10"/>
+      <c r="T273" s="8"/>
     </row>
     <row r="274" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
@@ -21636,7 +21627,7 @@
       <c r="Q274" s="2">
         <v>1</v>
       </c>
-      <c r="T274" s="10"/>
+      <c r="T274" s="8"/>
     </row>
     <row r="275" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
@@ -21681,7 +21672,7 @@
       <c r="Q275" s="2">
         <v>2</v>
       </c>
-      <c r="T275" s="10"/>
+      <c r="T275" s="8"/>
     </row>
     <row r="276" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
@@ -21726,7 +21717,7 @@
       <c r="Q276" s="2">
         <v>0</v>
       </c>
-      <c r="T276" s="10"/>
+      <c r="T276" s="8"/>
     </row>
     <row r="277" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
@@ -21771,7 +21762,7 @@
       <c r="Q277" s="2">
         <v>0</v>
       </c>
-      <c r="T277" s="10"/>
+      <c r="T277" s="8"/>
     </row>
     <row r="278" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
@@ -21816,7 +21807,7 @@
       <c r="Q278" s="2">
         <v>0</v>
       </c>
-      <c r="T278" s="10"/>
+      <c r="T278" s="8"/>
     </row>
     <row r="279" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
@@ -21861,7 +21852,7 @@
       <c r="Q279" s="2">
         <v>2</v>
       </c>
-      <c r="T279" s="10"/>
+      <c r="T279" s="8"/>
     </row>
     <row r="280" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
@@ -21906,7 +21897,7 @@
       <c r="Q280" s="2">
         <v>1</v>
       </c>
-      <c r="T280" s="10"/>
+      <c r="T280" s="8"/>
     </row>
     <row r="281" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
@@ -21951,7 +21942,7 @@
       <c r="Q281" s="2">
         <v>4</v>
       </c>
-      <c r="T281" s="10"/>
+      <c r="T281" s="8"/>
     </row>
     <row r="282" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
@@ -21996,7 +21987,7 @@
       <c r="Q282" s="2">
         <v>0</v>
       </c>
-      <c r="T282" s="10"/>
+      <c r="T282" s="8"/>
     </row>
     <row r="283" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
@@ -22041,7 +22032,7 @@
       <c r="Q283" s="2">
         <v>3</v>
       </c>
-      <c r="T283" s="10"/>
+      <c r="T283" s="8"/>
     </row>
     <row r="284" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
@@ -22086,7 +22077,7 @@
       <c r="Q284" s="2">
         <v>0</v>
       </c>
-      <c r="T284" s="10"/>
+      <c r="T284" s="8"/>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
@@ -22131,7 +22122,7 @@
       <c r="Q285" s="2">
         <v>5</v>
       </c>
-      <c r="T285" s="10"/>
+      <c r="T285" s="8"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
@@ -22176,7 +22167,7 @@
       <c r="Q286" s="2">
         <v>8</v>
       </c>
-      <c r="T286" s="10"/>
+      <c r="T286" s="8"/>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
@@ -22221,7 +22212,7 @@
       <c r="Q287" s="2">
         <v>21</v>
       </c>
-      <c r="T287" s="10"/>
+      <c r="T287" s="8"/>
     </row>
     <row r="288" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
@@ -22266,7 +22257,7 @@
       <c r="Q288" s="2">
         <v>1</v>
       </c>
-      <c r="T288" s="10"/>
+      <c r="T288" s="8"/>
     </row>
     <row r="289" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
@@ -22311,7 +22302,7 @@
       <c r="Q289" s="2">
         <v>0</v>
       </c>
-      <c r="T289" s="10"/>
+      <c r="T289" s="8"/>
     </row>
     <row r="290" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
@@ -22356,7 +22347,7 @@
       <c r="Q290" s="2">
         <v>2</v>
       </c>
-      <c r="T290" s="10"/>
+      <c r="T290" s="8"/>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
@@ -22401,7 +22392,7 @@
       <c r="Q291" s="2">
         <v>5</v>
       </c>
-      <c r="T291" s="10"/>
+      <c r="T291" s="8"/>
     </row>
     <row r="292" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
@@ -22446,7 +22437,7 @@
       <c r="Q292" s="2">
         <v>2</v>
       </c>
-      <c r="T292" s="10"/>
+      <c r="T292" s="8"/>
     </row>
     <row r="293" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
@@ -22491,7 +22482,7 @@
       <c r="Q293" s="2">
         <v>17</v>
       </c>
-      <c r="T293" s="10"/>
+      <c r="T293" s="8"/>
     </row>
     <row r="294" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
@@ -22536,7 +22527,7 @@
       <c r="Q294" s="2">
         <v>24</v>
       </c>
-      <c r="T294" s="10"/>
+      <c r="T294" s="8"/>
     </row>
     <row r="295" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
@@ -22581,7 +22572,7 @@
       <c r="Q295" s="2">
         <v>2</v>
       </c>
-      <c r="T295" s="10"/>
+      <c r="T295" s="8"/>
     </row>
     <row r="296" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
@@ -22626,7 +22617,7 @@
       <c r="Q296" s="2">
         <v>2</v>
       </c>
-      <c r="T296" s="10"/>
+      <c r="T296" s="8"/>
     </row>
     <row r="297" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
@@ -22671,7 +22662,7 @@
       <c r="Q297" s="2">
         <v>12</v>
       </c>
-      <c r="T297" s="10"/>
+      <c r="T297" s="8"/>
     </row>
     <row r="298" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
@@ -22716,7 +22707,7 @@
       <c r="Q298" s="2">
         <v>16</v>
       </c>
-      <c r="T298" s="10"/>
+      <c r="T298" s="8"/>
     </row>
     <row r="299" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
@@ -22761,7 +22752,7 @@
       <c r="Q299" s="2">
         <v>25</v>
       </c>
-      <c r="T299" s="10"/>
+      <c r="T299" s="8"/>
     </row>
     <row r="300" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
@@ -22806,7 +22797,7 @@
       <c r="Q300" s="2">
         <v>1</v>
       </c>
-      <c r="T300" s="10"/>
+      <c r="T300" s="8"/>
     </row>
     <row r="301" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
@@ -22851,7 +22842,7 @@
       <c r="Q301" s="2">
         <v>29</v>
       </c>
-      <c r="T301" s="10"/>
+      <c r="T301" s="8"/>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
@@ -22896,7 +22887,7 @@
       <c r="Q302" s="2">
         <v>0</v>
       </c>
-      <c r="T302" s="10"/>
+      <c r="T302" s="8"/>
     </row>
     <row r="303" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
@@ -22941,7 +22932,7 @@
       <c r="Q303" s="2">
         <v>3</v>
       </c>
-      <c r="T303" s="10"/>
+      <c r="T303" s="8"/>
     </row>
     <row r="304" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
@@ -22986,7 +22977,7 @@
       <c r="Q304" s="2">
         <v>4</v>
       </c>
-      <c r="T304" s="10"/>
+      <c r="T304" s="8"/>
     </row>
     <row r="305" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
@@ -23031,7 +23022,7 @@
       <c r="Q305" s="2">
         <v>9</v>
       </c>
-      <c r="T305" s="10"/>
+      <c r="T305" s="8"/>
     </row>
     <row r="306" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
@@ -23076,7 +23067,7 @@
       <c r="Q306" s="2">
         <v>14</v>
       </c>
-      <c r="T306" s="10"/>
+      <c r="T306" s="8"/>
     </row>
     <row r="307" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
@@ -23121,7 +23112,7 @@
       <c r="Q307" s="2">
         <v>19</v>
       </c>
-      <c r="T307" s="10"/>
+      <c r="T307" s="8"/>
     </row>
     <row r="308" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
@@ -23166,7 +23157,7 @@
       <c r="Q308" s="2">
         <v>9</v>
       </c>
-      <c r="T308" s="10"/>
+      <c r="T308" s="8"/>
     </row>
     <row r="309" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
@@ -23211,7 +23202,7 @@
       <c r="Q309" s="2">
         <v>3</v>
       </c>
-      <c r="T309" s="10"/>
+      <c r="T309" s="8"/>
     </row>
     <row r="310" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
@@ -23256,7 +23247,7 @@
       <c r="Q310" s="2">
         <v>9</v>
       </c>
-      <c r="T310" s="10"/>
+      <c r="T310" s="8"/>
     </row>
     <row r="311" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
@@ -23301,7 +23292,7 @@
       <c r="Q311" s="2">
         <v>10</v>
       </c>
-      <c r="T311" s="10"/>
+      <c r="T311" s="8"/>
     </row>
     <row r="312" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
@@ -23346,7 +23337,7 @@
       <c r="Q312" s="2">
         <v>18</v>
       </c>
-      <c r="T312" s="10"/>
+      <c r="T312" s="8"/>
     </row>
     <row r="313" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
@@ -23391,7 +23382,7 @@
       <c r="Q313" s="2">
         <v>20</v>
       </c>
-      <c r="T313" s="10"/>
+      <c r="T313" s="8"/>
     </row>
     <row r="314" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
@@ -23436,7 +23427,7 @@
       <c r="Q314" s="2">
         <v>28</v>
       </c>
-      <c r="T314" s="10"/>
+      <c r="T314" s="8"/>
     </row>
     <row r="315" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
@@ -23481,7 +23472,7 @@
       <c r="Q315" s="2">
         <v>12</v>
       </c>
-      <c r="T315" s="10"/>
+      <c r="T315" s="8"/>
     </row>
     <row r="316" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
@@ -23526,7 +23517,7 @@
       <c r="Q316" s="2">
         <v>9</v>
       </c>
-      <c r="T316" s="10"/>
+      <c r="T316" s="8"/>
     </row>
     <row r="317" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
@@ -23571,7 +23562,7 @@
       <c r="Q317" s="2">
         <v>11</v>
       </c>
-      <c r="T317" s="10"/>
+      <c r="T317" s="8"/>
     </row>
     <row r="318" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
@@ -23616,7 +23607,7 @@
       <c r="Q318" s="2">
         <v>0</v>
       </c>
-      <c r="T318" s="10"/>
+      <c r="T318" s="8"/>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
@@ -23661,7 +23652,7 @@
       <c r="Q319" s="2">
         <v>3</v>
       </c>
-      <c r="T319" s="10"/>
+      <c r="T319" s="8"/>
     </row>
     <row r="320" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
@@ -23706,7 +23697,7 @@
       <c r="Q320" s="2">
         <v>1</v>
       </c>
-      <c r="T320" s="10"/>
+      <c r="T320" s="8"/>
     </row>
     <row r="321" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
@@ -23751,7 +23742,7 @@
       <c r="Q321" s="2">
         <v>12</v>
       </c>
-      <c r="T321" s="10"/>
+      <c r="T321" s="8"/>
     </row>
     <row r="322" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
@@ -23796,7 +23787,7 @@
       <c r="Q322" s="2">
         <v>23</v>
       </c>
-      <c r="T322" s="10"/>
+      <c r="T322" s="8"/>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
@@ -23841,7 +23832,7 @@
       <c r="Q323" s="2">
         <v>3</v>
       </c>
-      <c r="T323" s="10"/>
+      <c r="T323" s="8"/>
     </row>
     <row r="324" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
@@ -23886,7 +23877,7 @@
       <c r="Q324" s="2">
         <v>0</v>
       </c>
-      <c r="T324" s="10"/>
+      <c r="T324" s="8"/>
     </row>
     <row r="325" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
@@ -23931,7 +23922,7 @@
       <c r="Q325" s="2">
         <v>6</v>
       </c>
-      <c r="T325" s="10"/>
+      <c r="T325" s="8"/>
     </row>
     <row r="326" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
@@ -23976,7 +23967,7 @@
       <c r="Q326" s="2">
         <v>7</v>
       </c>
-      <c r="T326" s="10"/>
+      <c r="T326" s="8"/>
     </row>
     <row r="327" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
@@ -24021,7 +24012,7 @@
       <c r="Q327" s="2">
         <v>22</v>
       </c>
-      <c r="T327" s="10"/>
+      <c r="T327" s="8"/>
     </row>
     <row r="328" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
@@ -24066,7 +24057,7 @@
       <c r="Q328" s="2">
         <v>0</v>
       </c>
-      <c r="T328" s="10"/>
+      <c r="T328" s="8"/>
     </row>
     <row r="329" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
@@ -24111,7 +24102,7 @@
       <c r="Q329" s="2">
         <v>3</v>
       </c>
-      <c r="T329" s="10"/>
+      <c r="T329" s="8"/>
     </row>
     <row r="330" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
@@ -24156,7 +24147,7 @@
       <c r="Q330" s="2">
         <v>9</v>
       </c>
-      <c r="T330" s="10"/>
+      <c r="T330" s="8"/>
     </row>
     <row r="331" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
@@ -24201,7 +24192,7 @@
       <c r="Q331" s="2">
         <v>26</v>
       </c>
-      <c r="T331" s="10"/>
+      <c r="T331" s="8"/>
     </row>
     <row r="332" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
@@ -24248,7 +24239,7 @@
       <c r="Q332" s="2">
         <v>0</v>
       </c>
-      <c r="T332" s="10"/>
+      <c r="T332" s="8"/>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
@@ -24293,7 +24284,7 @@
       <c r="Q333" s="2">
         <v>0</v>
       </c>
-      <c r="T333" s="10"/>
+      <c r="T333" s="8"/>
     </row>
     <row r="334" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
@@ -24338,7 +24329,7 @@
       <c r="Q334" s="2">
         <v>0</v>
       </c>
-      <c r="T334" s="10"/>
+      <c r="T334" s="8"/>
     </row>
     <row r="335" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
@@ -24383,7 +24374,7 @@
       <c r="Q335" s="2">
         <v>9</v>
       </c>
-      <c r="T335" s="10"/>
+      <c r="T335" s="8"/>
     </row>
     <row r="336" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
@@ -24428,7 +24419,7 @@
       <c r="Q336" s="2">
         <v>0</v>
       </c>
-      <c r="T336" s="10"/>
+      <c r="T336" s="8"/>
     </row>
     <row r="337" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
@@ -24473,7 +24464,7 @@
       <c r="Q337" s="2">
         <v>13</v>
       </c>
-      <c r="T337" s="10"/>
+      <c r="T337" s="8"/>
     </row>
     <row r="338" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
@@ -24518,7 +24509,7 @@
       <c r="Q338" s="2">
         <v>3</v>
       </c>
-      <c r="T338" s="10"/>
+      <c r="T338" s="8"/>
     </row>
     <row r="339" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
@@ -24563,7 +24554,7 @@
       <c r="Q339" s="2">
         <v>3</v>
       </c>
-      <c r="T339" s="10"/>
+      <c r="T339" s="8"/>
     </row>
     <row r="340" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
@@ -24608,7 +24599,7 @@
       <c r="Q340" s="2">
         <v>27</v>
       </c>
-      <c r="T340" s="10"/>
+      <c r="T340" s="8"/>
     </row>
     <row r="341" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
@@ -24653,7 +24644,7 @@
       <c r="Q341" s="2">
         <v>3</v>
       </c>
-      <c r="T341" s="10"/>
+      <c r="T341" s="8"/>
     </row>
     <row r="342" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
@@ -24698,7 +24689,7 @@
       <c r="Q342" s="2">
         <v>9</v>
       </c>
-      <c r="T342" s="10"/>
+      <c r="T342" s="8"/>
     </row>
     <row r="343" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
@@ -24743,7 +24734,7 @@
       <c r="Q343" s="2">
         <v>3</v>
       </c>
-      <c r="T343" s="10"/>
+      <c r="T343" s="8"/>
     </row>
     <row r="344" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
@@ -24788,7 +24779,7 @@
       <c r="Q344" s="2">
         <v>9</v>
       </c>
-      <c r="T344" s="10"/>
+      <c r="T344" s="8"/>
     </row>
     <row r="345" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
@@ -24833,7 +24824,7 @@
       <c r="Q345" s="2">
         <v>15</v>
       </c>
-      <c r="T345" s="10"/>
+      <c r="T345" s="8"/>
     </row>
     <row r="346" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
@@ -24878,7 +24869,7 @@
       <c r="Q346" s="2">
         <v>1</v>
       </c>
-      <c r="T346" s="10"/>
+      <c r="T346" s="8"/>
     </row>
     <row r="347" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
@@ -24923,7 +24914,7 @@
       <c r="Q347" s="2">
         <v>0</v>
       </c>
-      <c r="T347" s="10"/>
+      <c r="T347" s="8"/>
     </row>
     <row r="348" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
@@ -24968,7 +24959,7 @@
       <c r="Q348" s="2">
         <v>6</v>
       </c>
-      <c r="T348" s="10"/>
+      <c r="T348" s="8"/>
     </row>
     <row r="349" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
@@ -25013,7 +25004,7 @@
       <c r="Q349" s="2">
         <v>1</v>
       </c>
-      <c r="T349" s="10"/>
+      <c r="T349" s="8"/>
     </row>
     <row r="350" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
@@ -25058,7 +25049,7 @@
       <c r="Q350" s="2">
         <v>1</v>
       </c>
-      <c r="T350" s="10"/>
+      <c r="T350" s="8"/>
     </row>
     <row r="351" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
@@ -25103,7 +25094,7 @@
       <c r="Q351" s="2">
         <v>0</v>
       </c>
-      <c r="T351" s="10"/>
+      <c r="T351" s="8"/>
     </row>
     <row r="352" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
@@ -25148,7 +25139,7 @@
       <c r="Q352" s="2">
         <v>1</v>
       </c>
-      <c r="T352" s="10"/>
+      <c r="T352" s="8"/>
     </row>
     <row r="353" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
@@ -25193,7 +25184,7 @@
       <c r="Q353" s="2">
         <v>3</v>
       </c>
-      <c r="T353" s="10"/>
+      <c r="T353" s="8"/>
     </row>
     <row r="354" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
@@ -25238,7 +25229,7 @@
       <c r="Q354" s="2">
         <v>0</v>
       </c>
-      <c r="T354" s="10"/>
+      <c r="T354" s="8"/>
     </row>
     <row r="355" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
@@ -25283,7 +25274,7 @@
       <c r="Q355" s="2">
         <v>0</v>
       </c>
-      <c r="T355" s="10"/>
+      <c r="T355" s="8"/>
     </row>
     <row r="356" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
@@ -25328,7 +25319,7 @@
       <c r="Q356" s="2">
         <v>0</v>
       </c>
-      <c r="T356" s="10"/>
+      <c r="T356" s="8"/>
     </row>
     <row r="357" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
@@ -25373,7 +25364,7 @@
       <c r="Q357" s="2">
         <v>0</v>
       </c>
-      <c r="T357" s="10"/>
+      <c r="T357" s="8"/>
     </row>
     <row r="358" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
@@ -25418,7 +25409,7 @@
       <c r="Q358" s="2">
         <v>3</v>
       </c>
-      <c r="T358" s="10"/>
+      <c r="T358" s="8"/>
     </row>
     <row r="359" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
@@ -25463,7 +25454,7 @@
       <c r="Q359" s="2">
         <v>3</v>
       </c>
-      <c r="T359" s="10"/>
+      <c r="T359" s="8"/>
     </row>
     <row r="360" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
@@ -25508,7 +25499,7 @@
       <c r="Q360" s="2">
         <v>0</v>
       </c>
-      <c r="T360" s="10"/>
+      <c r="T360" s="8"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
@@ -25553,7 +25544,7 @@
       <c r="Q361" s="2">
         <v>0</v>
       </c>
-      <c r="T361" s="10"/>
+      <c r="T361" s="8"/>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
@@ -25598,7 +25589,7 @@
       <c r="Q362" s="2">
         <v>3</v>
       </c>
-      <c r="T362" s="10"/>
+      <c r="T362" s="8"/>
     </row>
     <row r="363" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
@@ -25643,7 +25634,7 @@
       <c r="Q363" s="2">
         <v>3</v>
       </c>
-      <c r="T363" s="10"/>
+      <c r="T363" s="8"/>
     </row>
     <row r="364" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
@@ -25688,7 +25679,7 @@
       <c r="Q364" s="2">
         <v>1</v>
       </c>
-      <c r="T364" s="10"/>
+      <c r="T364" s="8"/>
     </row>
     <row r="365" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
@@ -25733,7 +25724,7 @@
       <c r="Q365" s="2">
         <v>1</v>
       </c>
-      <c r="T365" s="10"/>
+      <c r="T365" s="8"/>
     </row>
     <row r="366" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
@@ -25778,7 +25769,7 @@
       <c r="Q366" s="2">
         <v>0</v>
       </c>
-      <c r="T366" s="10"/>
+      <c r="T366" s="8"/>
     </row>
     <row r="367" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
@@ -25823,7 +25814,7 @@
       <c r="Q367" s="2">
         <v>0</v>
       </c>
-      <c r="T367" s="10"/>
+      <c r="T367" s="8"/>
     </row>
     <row r="368" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
@@ -25868,7 +25859,7 @@
       <c r="Q368" s="2">
         <v>3</v>
       </c>
-      <c r="T368" s="10"/>
+      <c r="T368" s="8"/>
     </row>
     <row r="369" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
@@ -25913,7 +25904,7 @@
       <c r="Q369" s="2">
         <v>2</v>
       </c>
-      <c r="T369" s="10"/>
+      <c r="T369" s="8"/>
     </row>
     <row r="370" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
@@ -25958,7 +25949,7 @@
       <c r="Q370" s="2">
         <v>1</v>
       </c>
-      <c r="T370" s="10"/>
+      <c r="T370" s="8"/>
     </row>
     <row r="371" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
@@ -26003,7 +25994,7 @@
       <c r="Q371" s="2">
         <v>0</v>
       </c>
-      <c r="T371" s="10"/>
+      <c r="T371" s="8"/>
     </row>
     <row r="372" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
@@ -26048,7 +26039,7 @@
       <c r="Q372" s="2">
         <v>3</v>
       </c>
-      <c r="T372" s="10"/>
+      <c r="T372" s="8"/>
     </row>
     <row r="373" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
@@ -26093,7 +26084,7 @@
       <c r="Q373" s="2">
         <v>0</v>
       </c>
-      <c r="T373" s="10"/>
+      <c r="T373" s="8"/>
     </row>
     <row r="374" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
@@ -26138,7 +26129,7 @@
       <c r="Q374" s="2">
         <v>1</v>
       </c>
-      <c r="T374" s="10"/>
+      <c r="T374" s="8"/>
     </row>
     <row r="375" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
@@ -26183,7 +26174,7 @@
       <c r="Q375" s="2">
         <v>0</v>
       </c>
-      <c r="T375" s="10"/>
+      <c r="T375" s="8"/>
     </row>
     <row r="376" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
@@ -26228,7 +26219,7 @@
       <c r="Q376" s="2">
         <v>0</v>
       </c>
-      <c r="T376" s="10"/>
+      <c r="T376" s="8"/>
     </row>
     <row r="377" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
@@ -26273,7 +26264,7 @@
       <c r="Q377" s="2">
         <v>3</v>
       </c>
-      <c r="T377" s="10"/>
+      <c r="T377" s="8"/>
     </row>
     <row r="378" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
@@ -26320,7 +26311,7 @@
       <c r="Q378" s="2">
         <v>0</v>
       </c>
-      <c r="T378" s="10"/>
+      <c r="T378" s="8"/>
     </row>
     <row r="379" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
@@ -26365,7 +26356,7 @@
       <c r="Q379" s="2">
         <v>1</v>
       </c>
-      <c r="T379" s="10"/>
+      <c r="T379" s="8"/>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
@@ -26410,7 +26401,7 @@
       <c r="Q380" s="2">
         <v>0</v>
       </c>
-      <c r="T380" s="10"/>
+      <c r="T380" s="8"/>
     </row>
     <row r="381" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
@@ -26455,7 +26446,7 @@
       <c r="Q381" s="2">
         <v>3</v>
       </c>
-      <c r="T381" s="10"/>
+      <c r="T381" s="8"/>
     </row>
     <row r="382" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
@@ -26500,7 +26491,7 @@
       <c r="Q382" s="2">
         <v>0</v>
       </c>
-      <c r="T382" s="10"/>
+      <c r="T382" s="8"/>
     </row>
     <row r="383" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
@@ -26545,7 +26536,7 @@
       <c r="Q383" s="2">
         <v>4</v>
       </c>
-      <c r="T383" s="10"/>
+      <c r="T383" s="8"/>
     </row>
     <row r="384" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
@@ -26590,7 +26581,7 @@
       <c r="Q384" s="2">
         <v>1</v>
       </c>
-      <c r="T384" s="10"/>
+      <c r="T384" s="8"/>
     </row>
     <row r="385" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
@@ -26635,7 +26626,7 @@
       <c r="Q385" s="2">
         <v>2</v>
       </c>
-      <c r="T385" s="10"/>
+      <c r="T385" s="8"/>
     </row>
     <row r="386" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
@@ -26680,7 +26671,7 @@
       <c r="Q386" s="2">
         <v>1</v>
       </c>
-      <c r="T386" s="10"/>
+      <c r="T386" s="8"/>
     </row>
     <row r="387" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
@@ -26725,7 +26716,7 @@
       <c r="Q387" s="2">
         <v>0</v>
       </c>
-      <c r="T387" s="10"/>
+      <c r="T387" s="8"/>
     </row>
     <row r="388" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
@@ -26770,7 +26761,7 @@
       <c r="Q388" s="2">
         <v>0</v>
       </c>
-      <c r="T388" s="10"/>
+      <c r="T388" s="8"/>
     </row>
     <row r="389" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
@@ -26815,7 +26806,7 @@
       <c r="Q389" s="2">
         <v>0</v>
       </c>
-      <c r="T389" s="10"/>
+      <c r="T389" s="8"/>
     </row>
     <row r="390" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
@@ -26860,7 +26851,7 @@
       <c r="Q390" s="2">
         <v>3</v>
       </c>
-      <c r="T390" s="10"/>
+      <c r="T390" s="8"/>
     </row>
     <row r="391" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
@@ -26905,7 +26896,7 @@
       <c r="Q391" s="2">
         <v>3</v>
       </c>
-      <c r="T391" s="10"/>
+      <c r="T391" s="8"/>
     </row>
     <row r="392" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
@@ -26950,7 +26941,7 @@
       <c r="Q392" s="2">
         <v>0</v>
       </c>
-      <c r="T392" s="10"/>
+      <c r="T392" s="8"/>
     </row>
     <row r="393" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
@@ -26995,7 +26986,7 @@
       <c r="Q393" s="2">
         <v>0</v>
       </c>
-      <c r="T393" s="10"/>
+      <c r="T393" s="8"/>
     </row>
     <row r="394" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
@@ -27040,7 +27031,7 @@
       <c r="Q394" s="2">
         <v>1</v>
       </c>
-      <c r="T394" s="10"/>
+      <c r="T394" s="8"/>
     </row>
     <row r="395" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
@@ -27085,7 +27076,7 @@
       <c r="Q395" s="2">
         <v>1</v>
       </c>
-      <c r="T395" s="10"/>
+      <c r="T395" s="8"/>
     </row>
     <row r="396" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
@@ -27130,7 +27121,7 @@
       <c r="Q396" s="2">
         <v>0</v>
       </c>
-      <c r="T396" s="10"/>
+      <c r="T396" s="8"/>
     </row>
     <row r="397" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
@@ -27175,7 +27166,7 @@
       <c r="Q397" s="2">
         <v>1</v>
       </c>
-      <c r="T397" s="10"/>
+      <c r="T397" s="8"/>
     </row>
     <row r="398" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
@@ -27220,7 +27211,7 @@
       <c r="Q398" s="2">
         <v>3</v>
       </c>
-      <c r="T398" s="10"/>
+      <c r="T398" s="8"/>
     </row>
     <row r="399" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
@@ -27265,7 +27256,7 @@
       <c r="Q399" s="2">
         <v>7</v>
       </c>
-      <c r="T399" s="10"/>
+      <c r="T399" s="8"/>
     </row>
     <row r="400" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
@@ -27310,7 +27301,7 @@
       <c r="Q400" s="2">
         <v>2</v>
       </c>
-      <c r="T400" s="10"/>
+      <c r="T400" s="8"/>
     </row>
     <row r="401" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
@@ -27355,7 +27346,7 @@
       <c r="Q401" s="2">
         <v>0</v>
       </c>
-      <c r="T401" s="10"/>
+      <c r="T401" s="8"/>
     </row>
     <row r="402" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
@@ -27400,7 +27391,7 @@
       <c r="Q402" s="2">
         <v>1</v>
       </c>
-      <c r="T402" s="10"/>
+      <c r="T402" s="8"/>
     </row>
     <row r="403" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
@@ -27445,7 +27436,7 @@
       <c r="Q403" s="2">
         <v>3</v>
       </c>
-      <c r="T403" s="10"/>
+      <c r="T403" s="8"/>
     </row>
     <row r="404" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
@@ -27490,7 +27481,7 @@
       <c r="Q404" s="2">
         <v>0</v>
       </c>
-      <c r="T404" s="10"/>
+      <c r="T404" s="8"/>
     </row>
     <row r="405" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
@@ -27535,7 +27526,7 @@
       <c r="Q405" s="2">
         <v>5</v>
       </c>
-      <c r="T405" s="10"/>
+      <c r="T405" s="8"/>
     </row>
     <row r="406" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
@@ -27580,7 +27571,7 @@
       <c r="Q406" s="2">
         <v>0</v>
       </c>
-      <c r="T406" s="10"/>
+      <c r="T406" s="8"/>
     </row>
     <row r="407" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
@@ -27625,7 +27616,7 @@
       <c r="Q407" s="2">
         <v>1</v>
       </c>
-      <c r="T407" s="10"/>
+      <c r="T407" s="8"/>
     </row>
     <row r="408" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
@@ -27670,7 +27661,7 @@
       <c r="Q408" s="2">
         <v>4</v>
       </c>
-      <c r="T408" s="10"/>
+      <c r="T408" s="8"/>
     </row>
     <row r="409" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
@@ -27715,7 +27706,7 @@
       <c r="Q409" s="2">
         <v>14</v>
       </c>
-      <c r="T409" s="10"/>
+      <c r="T409" s="8"/>
     </row>
     <row r="410" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
@@ -27760,7 +27751,7 @@
       <c r="Q410" s="2">
         <v>20</v>
       </c>
-      <c r="T410" s="10"/>
+      <c r="T410" s="8"/>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
@@ -27805,7 +27796,7 @@
       <c r="Q411" s="2">
         <v>1</v>
       </c>
-      <c r="T411" s="10"/>
+      <c r="T411" s="8"/>
     </row>
     <row r="412" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
@@ -27850,7 +27841,7 @@
       <c r="Q412" s="2">
         <v>3</v>
       </c>
-      <c r="T412" s="10"/>
+      <c r="T412" s="8"/>
     </row>
     <row r="413" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
@@ -27895,7 +27886,7 @@
       <c r="Q413" s="2">
         <v>5</v>
       </c>
-      <c r="T413" s="10"/>
+      <c r="T413" s="8"/>
     </row>
     <row r="414" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
@@ -27940,7 +27931,7 @@
       <c r="Q414" s="2">
         <v>3</v>
       </c>
-      <c r="T414" s="10"/>
+      <c r="T414" s="8"/>
     </row>
     <row r="415" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
@@ -27985,7 +27976,7 @@
       <c r="Q415" s="2">
         <v>15</v>
       </c>
-      <c r="T415" s="10"/>
+      <c r="T415" s="8"/>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
@@ -28030,7 +28021,7 @@
       <c r="Q416" s="2">
         <v>5</v>
       </c>
-      <c r="T416" s="10"/>
+      <c r="T416" s="8"/>
     </row>
     <row r="417" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
@@ -28075,7 +28066,7 @@
       <c r="Q417" s="2">
         <v>4</v>
       </c>
-      <c r="T417" s="10"/>
+      <c r="T417" s="8"/>
     </row>
     <row r="418" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
@@ -28120,7 +28111,7 @@
       <c r="Q418" s="2">
         <v>5</v>
       </c>
-      <c r="T418" s="10"/>
+      <c r="T418" s="8"/>
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
@@ -28165,7 +28156,7 @@
       <c r="Q419" s="2">
         <v>5</v>
       </c>
-      <c r="T419" s="10"/>
+      <c r="T419" s="8"/>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
@@ -28210,7 +28201,7 @@
       <c r="Q420" s="2">
         <v>1</v>
       </c>
-      <c r="T420" s="10"/>
+      <c r="T420" s="8"/>
     </row>
     <row r="421" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
@@ -28255,7 +28246,7 @@
       <c r="Q421" s="2">
         <v>18</v>
       </c>
-      <c r="T421" s="10"/>
+      <c r="T421" s="8"/>
     </row>
     <row r="422" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
@@ -28300,7 +28291,7 @@
       <c r="Q422" s="2">
         <v>0</v>
       </c>
-      <c r="T422" s="10"/>
+      <c r="T422" s="8"/>
     </row>
     <row r="423" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
@@ -28345,7 +28336,7 @@
       <c r="Q423" s="2">
         <v>0</v>
       </c>
-      <c r="T423" s="10"/>
+      <c r="T423" s="8"/>
     </row>
     <row r="424" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
@@ -28390,7 +28381,7 @@
       <c r="Q424" s="2">
         <v>5</v>
       </c>
-      <c r="T424" s="10"/>
+      <c r="T424" s="8"/>
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
@@ -28435,7 +28426,7 @@
       <c r="Q425" s="2">
         <v>11</v>
       </c>
-      <c r="T425" s="10"/>
+      <c r="T425" s="8"/>
     </row>
     <row r="426" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
@@ -28480,7 +28471,7 @@
       <c r="Q426" s="2">
         <v>5</v>
       </c>
-      <c r="T426" s="10"/>
+      <c r="T426" s="8"/>
     </row>
     <row r="427" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
@@ -28525,7 +28516,7 @@
       <c r="Q427" s="2">
         <v>4</v>
       </c>
-      <c r="T427" s="10"/>
+      <c r="T427" s="8"/>
     </row>
     <row r="428" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
@@ -28570,7 +28561,7 @@
       <c r="Q428" s="2">
         <v>17</v>
       </c>
-      <c r="T428" s="10"/>
+      <c r="T428" s="8"/>
     </row>
     <row r="429" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
@@ -28615,7 +28606,7 @@
       <c r="Q429" s="2">
         <v>5</v>
       </c>
-      <c r="T429" s="10"/>
+      <c r="T429" s="8"/>
     </row>
     <row r="430" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
@@ -28660,7 +28651,7 @@
       <c r="Q430" s="2">
         <v>4</v>
       </c>
-      <c r="T430" s="10"/>
+      <c r="T430" s="8"/>
     </row>
     <row r="431" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
@@ -28705,7 +28696,7 @@
       <c r="Q431" s="2">
         <v>3</v>
       </c>
-      <c r="T431" s="10"/>
+      <c r="T431" s="8"/>
     </row>
     <row r="432" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
@@ -28750,7 +28741,7 @@
       <c r="Q432" s="2">
         <v>1</v>
       </c>
-      <c r="T432" s="10"/>
+      <c r="T432" s="8"/>
     </row>
     <row r="433" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
@@ -28795,7 +28786,7 @@
       <c r="Q433" s="2">
         <v>1</v>
       </c>
-      <c r="T433" s="10"/>
+      <c r="T433" s="8"/>
     </row>
     <row r="434" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
@@ -28840,7 +28831,7 @@
       <c r="Q434" s="2">
         <v>3</v>
       </c>
-      <c r="T434" s="10"/>
+      <c r="T434" s="8"/>
     </row>
     <row r="435" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
@@ -28885,7 +28876,7 @@
       <c r="Q435" s="2">
         <v>8</v>
       </c>
-      <c r="T435" s="10"/>
+      <c r="T435" s="8"/>
     </row>
     <row r="436" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
@@ -28930,7 +28921,7 @@
       <c r="Q436" s="2">
         <v>0</v>
       </c>
-      <c r="T436" s="10"/>
+      <c r="T436" s="8"/>
     </row>
     <row r="437" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
@@ -28975,7 +28966,7 @@
       <c r="Q437" s="2">
         <v>2</v>
       </c>
-      <c r="T437" s="10"/>
+      <c r="T437" s="8"/>
     </row>
     <row r="438" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
@@ -29020,7 +29011,7 @@
       <c r="Q438" s="2">
         <v>3</v>
       </c>
-      <c r="T438" s="10"/>
+      <c r="T438" s="8"/>
     </row>
     <row r="439" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
@@ -29065,7 +29056,7 @@
       <c r="Q439" s="2">
         <v>1</v>
       </c>
-      <c r="T439" s="10"/>
+      <c r="T439" s="8"/>
     </row>
     <row r="440" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
@@ -29110,7 +29101,7 @@
       <c r="Q440" s="2">
         <v>4</v>
       </c>
-      <c r="T440" s="10"/>
+      <c r="T440" s="8"/>
     </row>
     <row r="441" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
@@ -29155,7 +29146,7 @@
       <c r="Q441" s="2">
         <v>3</v>
       </c>
-      <c r="T441" s="10"/>
+      <c r="T441" s="8"/>
     </row>
     <row r="442" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
@@ -29200,7 +29191,7 @@
       <c r="Q442" s="2">
         <v>12</v>
       </c>
-      <c r="T442" s="10"/>
+      <c r="T442" s="8"/>
     </row>
     <row r="443" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
@@ -29245,7 +29236,7 @@
       <c r="Q443" s="2">
         <v>1</v>
       </c>
-      <c r="T443" s="10"/>
+      <c r="T443" s="8"/>
     </row>
     <row r="444" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
@@ -29290,7 +29281,7 @@
       <c r="Q444" s="2">
         <v>3</v>
       </c>
-      <c r="T444" s="10"/>
+      <c r="T444" s="8"/>
     </row>
     <row r="445" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
@@ -29335,7 +29326,7 @@
       <c r="Q445" s="2">
         <v>1</v>
       </c>
-      <c r="T445" s="10"/>
+      <c r="T445" s="8"/>
     </row>
     <row r="446" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
@@ -29380,7 +29371,7 @@
       <c r="Q446" s="2">
         <v>3</v>
       </c>
-      <c r="T446" s="10"/>
+      <c r="T446" s="8"/>
     </row>
     <row r="447" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
@@ -29427,7 +29418,7 @@
       <c r="Q447" s="2">
         <v>3</v>
       </c>
-      <c r="T447" s="10"/>
+      <c r="T447" s="8"/>
     </row>
     <row r="448" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
@@ -29472,7 +29463,7 @@
       <c r="Q448" s="2">
         <v>3</v>
       </c>
-      <c r="T448" s="10"/>
+      <c r="T448" s="8"/>
     </row>
     <row r="449" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
@@ -29517,7 +29508,7 @@
       <c r="Q449" s="2">
         <v>0</v>
       </c>
-      <c r="T449" s="10"/>
+      <c r="T449" s="8"/>
     </row>
     <row r="450" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
@@ -29562,7 +29553,7 @@
       <c r="Q450" s="2">
         <v>9</v>
       </c>
-      <c r="T450" s="10"/>
+      <c r="T450" s="8"/>
     </row>
     <row r="451" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
@@ -29607,7 +29598,7 @@
       <c r="Q451" s="2">
         <v>0</v>
       </c>
-      <c r="T451" s="10"/>
+      <c r="T451" s="8"/>
     </row>
     <row r="452" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
@@ -29652,7 +29643,7 @@
       <c r="Q452" s="2">
         <v>19</v>
       </c>
-      <c r="T452" s="10"/>
+      <c r="T452" s="8"/>
     </row>
     <row r="453" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
@@ -29697,7 +29688,7 @@
       <c r="Q453" s="2">
         <v>3</v>
       </c>
-      <c r="T453" s="10"/>
+      <c r="T453" s="8"/>
     </row>
     <row r="454" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
@@ -29742,7 +29733,7 @@
       <c r="Q454" s="2">
         <v>13</v>
       </c>
-      <c r="T454" s="10"/>
+      <c r="T454" s="8"/>
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
@@ -29787,7 +29778,7 @@
       <c r="Q455" s="2">
         <v>0</v>
       </c>
-      <c r="T455" s="10"/>
+      <c r="T455" s="8"/>
     </row>
     <row r="456" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
@@ -29832,7 +29823,7 @@
       <c r="Q456" s="2">
         <v>4</v>
       </c>
-      <c r="T456" s="10"/>
+      <c r="T456" s="8"/>
     </row>
     <row r="457" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
@@ -29877,7 +29868,7 @@
       <c r="Q457" s="2">
         <v>5</v>
       </c>
-      <c r="T457" s="10"/>
+      <c r="T457" s="8"/>
     </row>
     <row r="458" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
@@ -29922,7 +29913,7 @@
       <c r="Q458" s="2">
         <v>1</v>
       </c>
-      <c r="T458" s="10"/>
+      <c r="T458" s="8"/>
     </row>
     <row r="459" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
@@ -29967,7 +29958,7 @@
       <c r="Q459" s="2">
         <v>0</v>
       </c>
-      <c r="T459" s="10"/>
+      <c r="T459" s="8"/>
     </row>
     <row r="460" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
@@ -30012,7 +30003,7 @@
       <c r="Q460" s="2">
         <v>6</v>
       </c>
-      <c r="T460" s="10"/>
+      <c r="T460" s="8"/>
     </row>
     <row r="461" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
@@ -30057,7 +30048,7 @@
       <c r="Q461" s="2">
         <v>0</v>
       </c>
-      <c r="T461" s="10"/>
+      <c r="T461" s="8"/>
     </row>
     <row r="462" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
@@ -30102,7 +30093,7 @@
       <c r="Q462" s="2">
         <v>1</v>
       </c>
-      <c r="T462" s="10"/>
+      <c r="T462" s="8"/>
     </row>
     <row r="463" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
@@ -30147,7 +30138,7 @@
       <c r="Q463" s="2">
         <v>5</v>
       </c>
-      <c r="T463" s="10"/>
+      <c r="T463" s="8"/>
     </row>
     <row r="464" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
@@ -30192,7 +30183,7 @@
       <c r="Q464" s="2">
         <v>7</v>
       </c>
-      <c r="T464" s="10"/>
+      <c r="T464" s="8"/>
     </row>
     <row r="465" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
@@ -30237,7 +30228,7 @@
       <c r="Q465" s="2">
         <v>0</v>
       </c>
-      <c r="T465" s="10"/>
+      <c r="T465" s="8"/>
     </row>
     <row r="466" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
@@ -30282,7 +30273,7 @@
       <c r="Q466" s="2">
         <v>0</v>
       </c>
-      <c r="T466" s="10"/>
+      <c r="T466" s="8"/>
     </row>
     <row r="467" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
@@ -30327,7 +30318,7 @@
       <c r="Q467" s="2">
         <v>21</v>
       </c>
-      <c r="T467" s="10"/>
+      <c r="T467" s="8"/>
     </row>
     <row r="468" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
@@ -30372,7 +30363,7 @@
       <c r="Q468" s="2">
         <v>10</v>
       </c>
-      <c r="T468" s="10"/>
+      <c r="T468" s="8"/>
     </row>
     <row r="469" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
@@ -30417,7 +30408,7 @@
       <c r="Q469" s="2">
         <v>0</v>
       </c>
-      <c r="T469" s="10"/>
+      <c r="T469" s="8"/>
     </row>
     <row r="470" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
@@ -30462,7 +30453,7 @@
       <c r="Q470" s="2">
         <v>22</v>
       </c>
-      <c r="T470" s="10"/>
+      <c r="T470" s="8"/>
     </row>
     <row r="471" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
@@ -30507,7 +30498,7 @@
       <c r="Q471" s="2">
         <v>16</v>
       </c>
-      <c r="T471" s="10"/>
+      <c r="T471" s="8"/>
     </row>
     <row r="472" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
@@ -30552,7 +30543,7 @@
       <c r="Q472" s="2">
         <v>3</v>
       </c>
-      <c r="T472" s="10"/>
+      <c r="T472" s="8"/>
     </row>
     <row r="473" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
@@ -30597,7 +30588,7 @@
       <c r="Q473" s="2">
         <v>4</v>
       </c>
-      <c r="T473" s="10"/>
+      <c r="T473" s="8"/>
     </row>
     <row r="474" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
@@ -30642,7 +30633,7 @@
       <c r="Q474" s="2">
         <v>5</v>
       </c>
-      <c r="T474" s="10"/>
+      <c r="T474" s="8"/>
     </row>
     <row r="475" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
@@ -30687,7 +30678,7 @@
       <c r="Q475" s="2">
         <v>6</v>
       </c>
-      <c r="T475" s="10"/>
+      <c r="T475" s="8"/>
     </row>
     <row r="476" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
@@ -30732,7 +30723,7 @@
       <c r="Q476" s="2">
         <v>1</v>
       </c>
-      <c r="T476" s="10"/>
+      <c r="T476" s="8"/>
     </row>
     <row r="477" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
@@ -30777,7 +30768,7 @@
       <c r="Q477" s="2">
         <v>9</v>
       </c>
-      <c r="T477" s="10"/>
+      <c r="T477" s="8"/>
     </row>
     <row r="478" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
@@ -30822,7 +30813,7 @@
       <c r="Q478" s="2">
         <v>1</v>
       </c>
-      <c r="T478" s="10"/>
+      <c r="T478" s="8"/>
     </row>
     <row r="479" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
@@ -30867,7 +30858,7 @@
       <c r="Q479" s="2">
         <v>0</v>
       </c>
-      <c r="T479" s="10"/>
+      <c r="T479" s="8"/>
     </row>
     <row r="480" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
@@ -30912,7 +30903,7 @@
       <c r="Q480" s="2">
         <v>1</v>
       </c>
-      <c r="T480" s="10"/>
+      <c r="T480" s="8"/>
     </row>
     <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
@@ -30957,7 +30948,7 @@
       <c r="Q481" s="2">
         <v>0</v>
       </c>
-      <c r="T481" s="10"/>
+      <c r="T481" s="8"/>
     </row>
     <row r="482" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
@@ -31002,7 +30993,7 @@
       <c r="Q482" s="2">
         <v>0</v>
       </c>
-      <c r="T482" s="10"/>
+      <c r="T482" s="8"/>
     </row>
     <row r="483" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
@@ -31047,7 +31038,7 @@
       <c r="Q483" s="2">
         <v>0</v>
       </c>
-      <c r="T483" s="10"/>
+      <c r="T483" s="8"/>
     </row>
     <row r="484" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
@@ -31092,7 +31083,7 @@
       <c r="Q484" s="2">
         <v>1</v>
       </c>
-      <c r="T484" s="10"/>
+      <c r="T484" s="8"/>
     </row>
     <row r="485" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
@@ -31137,7 +31128,7 @@
       <c r="Q485" s="2">
         <v>7</v>
       </c>
-      <c r="T485" s="10"/>
+      <c r="T485" s="8"/>
     </row>
     <row r="486" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
@@ -31182,7 +31173,7 @@
       <c r="Q486" s="2">
         <v>0</v>
       </c>
-      <c r="T486" s="10"/>
+      <c r="T486" s="8"/>
     </row>
     <row r="487" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
@@ -31227,7 +31218,7 @@
       <c r="Q487" s="2">
         <v>0</v>
       </c>
-      <c r="T487" s="10"/>
+      <c r="T487" s="8"/>
     </row>
     <row r="488" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
@@ -31272,7 +31263,7 @@
       <c r="Q488" s="2">
         <v>0</v>
       </c>
-      <c r="T488" s="10"/>
+      <c r="T488" s="8"/>
     </row>
     <row r="489" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
@@ -31317,7 +31308,7 @@
       <c r="Q489" s="2">
         <v>0</v>
       </c>
-      <c r="T489" s="10"/>
+      <c r="T489" s="8"/>
     </row>
     <row r="490" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
@@ -31362,7 +31353,7 @@
       <c r="Q490" s="2">
         <v>0</v>
       </c>
-      <c r="T490" s="10"/>
+      <c r="T490" s="8"/>
     </row>
     <row r="491" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
@@ -31407,7 +31398,7 @@
       <c r="Q491" s="2">
         <v>0</v>
       </c>
-      <c r="T491" s="10"/>
+      <c r="T491" s="8"/>
     </row>
     <row r="492" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
@@ -31452,7 +31443,7 @@
       <c r="Q492" s="2">
         <v>0</v>
       </c>
-      <c r="T492" s="10"/>
+      <c r="T492" s="8"/>
     </row>
     <row r="493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
@@ -31497,7 +31488,7 @@
       <c r="Q493" s="2">
         <v>0</v>
       </c>
-      <c r="T493" s="10"/>
+      <c r="T493" s="8"/>
     </row>
     <row r="494" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
@@ -31542,7 +31533,7 @@
       <c r="Q494" s="2">
         <v>1</v>
       </c>
-      <c r="T494" s="10"/>
+      <c r="T494" s="8"/>
     </row>
     <row r="495" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
@@ -31587,7 +31578,7 @@
       <c r="Q495" s="2">
         <v>8</v>
       </c>
-      <c r="T495" s="10"/>
+      <c r="T495" s="8"/>
     </row>
     <row r="496" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
@@ -31632,7 +31623,7 @@
       <c r="Q496" s="2">
         <v>0</v>
       </c>
-      <c r="T496" s="10"/>
+      <c r="T496" s="8"/>
     </row>
     <row r="497" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
@@ -31677,7 +31668,7 @@
       <c r="Q497" s="2">
         <v>1</v>
       </c>
-      <c r="T497" s="10"/>
+      <c r="T497" s="8"/>
     </row>
     <row r="498" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
@@ -31722,7 +31713,7 @@
       <c r="Q498" s="2">
         <v>0</v>
       </c>
-      <c r="T498" s="10"/>
+      <c r="T498" s="8"/>
     </row>
     <row r="499" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
@@ -31767,7 +31758,7 @@
       <c r="Q499" s="2">
         <v>1</v>
       </c>
-      <c r="T499" s="10"/>
+      <c r="T499" s="8"/>
     </row>
     <row r="500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
@@ -31812,7 +31803,7 @@
       <c r="Q500" s="2">
         <v>2</v>
       </c>
-      <c r="T500" s="10"/>
+      <c r="T500" s="8"/>
     </row>
     <row r="501" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
@@ -31857,7 +31848,7 @@
       <c r="Q501" s="2">
         <v>0</v>
       </c>
-      <c r="T501" s="10"/>
+      <c r="T501" s="8"/>
     </row>
     <row r="502" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
@@ -31902,7 +31893,7 @@
       <c r="Q502" s="2">
         <v>0</v>
       </c>
-      <c r="T502" s="10"/>
+      <c r="T502" s="8"/>
     </row>
     <row r="503" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
@@ -31947,7 +31938,7 @@
       <c r="Q503" s="2">
         <v>0</v>
       </c>
-      <c r="T503" s="10"/>
+      <c r="T503" s="8"/>
     </row>
     <row r="504" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
@@ -31992,7 +31983,7 @@
       <c r="Q504" s="2">
         <v>0</v>
       </c>
-      <c r="T504" s="10"/>
+      <c r="T504" s="8"/>
     </row>
     <row r="505" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
@@ -32037,7 +32028,7 @@
       <c r="Q505" s="2">
         <v>0</v>
       </c>
-      <c r="T505" s="10"/>
+      <c r="T505" s="8"/>
     </row>
     <row r="506" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
@@ -32082,7 +32073,7 @@
       <c r="Q506" s="2">
         <v>0</v>
       </c>
-      <c r="T506" s="10"/>
+      <c r="T506" s="8"/>
     </row>
     <row r="507" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
@@ -32127,7 +32118,7 @@
       <c r="Q507" s="2">
         <v>0</v>
       </c>
-      <c r="T507" s="10"/>
+      <c r="T507" s="8"/>
     </row>
     <row r="508" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
@@ -32172,7 +32163,7 @@
       <c r="Q508" s="2">
         <v>0</v>
       </c>
-      <c r="T508" s="10"/>
+      <c r="T508" s="8"/>
     </row>
     <row r="509" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
@@ -32217,7 +32208,7 @@
       <c r="Q509" s="2">
         <v>1</v>
       </c>
-      <c r="T509" s="10"/>
+      <c r="T509" s="8"/>
     </row>
     <row r="510" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
@@ -32262,7 +32253,7 @@
       <c r="Q510" s="2">
         <v>1</v>
       </c>
-      <c r="T510" s="10"/>
+      <c r="T510" s="8"/>
     </row>
     <row r="511" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
@@ -32307,10 +32298,21 @@
       <c r="Q511" s="2">
         <v>8</v>
       </c>
-      <c r="T511" s="11"/>
+      <c r="T511" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="U20:AB20"/>
+    <mergeCell ref="U21:AB21"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="U35:AB35"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="U47:AB47"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="U59:AB59"/>
     <mergeCell ref="X98:Z98"/>
     <mergeCell ref="U107:AB107"/>
     <mergeCell ref="X110:Z110"/>
@@ -32320,17 +32322,6 @@
     <mergeCell ref="U83:AB83"/>
     <mergeCell ref="X86:Z86"/>
     <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="U35:AB35"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="U47:AB47"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="U59:AB59"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="U20:AB20"/>
-    <mergeCell ref="U21:AB21"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="X23:Z23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
